--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_19_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_19_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1447615.468211023</v>
+        <v>1442718.231623076</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23767730.23371837</v>
+        <v>23767730.23371836</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8186089.907737297</v>
+        <v>8186089.907737298</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5027874.787399516</v>
+        <v>5027874.787399517</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>321.5085657566482</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>224.7667675911747</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H11" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
-        <v>132.6551205385437</v>
+        <v>73.77932208184751</v>
       </c>
       <c r="D12" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>119.2878878475953</v>
@@ -1505,7 +1505,7 @@
         <v>153.1433946664671</v>
       </c>
       <c r="U12" t="n">
-        <v>159.5981563576016</v>
+        <v>195.3021387078687</v>
       </c>
       <c r="V12" t="n">
         <v>211.5744117368965</v>
@@ -1536,19 +1536,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.6200590018132</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>167.8355178356165</v>
       </c>
       <c r="T13" t="n">
-        <v>146.5525339991183</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>6.165891645966615</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1615,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>251.7214612892446</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>294.1959448519995</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C15" t="n">
         <v>132.6551205385437</v>
@@ -1700,10 +1700,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>10.06807673469244</v>
+        <v>87.98167345063422</v>
       </c>
       <c r="H15" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>132.4308553488495</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1821,10 +1821,10 @@
         <v>233.0607131231338</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
@@ -1833,7 +1833,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>205.79053194065</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>309.2820030390995</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>307.9608679625508</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1928,16 +1928,16 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
-        <v>60.41208939089928</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>104.7777180703237</v>
+        <v>15.86252774276143</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>85.6887943319354</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>153.1433946664671</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>149.3767006076909</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>5.754123098193017</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>167.8355178356165</v>
@@ -2061,16 +2061,16 @@
         <v>279.9179208068699</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,25 +2083,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>356.2872044038074</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>336.0883578153268</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U20" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,7 +2162,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C21" t="n">
-        <v>6.915757913002423</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D21" t="n">
         <v>115.7281862028015</v>
@@ -2171,13 +2171,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>104.7777180703237</v>
+        <v>15.86252774276165</v>
       </c>
       <c r="H21" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>85.6887943319354</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>153.1433946664671</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.754123098193017</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>167.8355178356165</v>
@@ -2298,13 +2298,13 @@
         <v>279.9179208068699</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>140.2310342157418</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -2320,25 +2320,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>259.3768702821205</v>
       </c>
       <c r="G23" t="n">
-        <v>264.6271196115666</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>85.26980621371686</v>
       </c>
       <c r="T23" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>140.9675955073445</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>167.8355178356165</v>
+        <v>50.97808970154612</v>
       </c>
       <c r="T25" t="n">
         <v>233.0607131231338</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2563,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>379.2597640394013</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>371.2292932917413</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -2715,10 +2715,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>94.89361138383856</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.35255397088749</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>167.8355178356165</v>
@@ -2778,10 +2778,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>184.7076856127678</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>302.6602186271194</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>85.26980621371689</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>152.4311815534731</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>75.46124653491007</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.35255397088749</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>279.9179208068699</v>
@@ -3015,10 +3015,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>134.5699714239582</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>84.32691702807256</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>317.5005946916401</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I32" t="n">
-        <v>3.166568202456233</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>85.26980621371689</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U32" t="n">
         <v>254.319061736559</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>69.98132802915437</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>94.89361138383856</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.35255397088749</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>167.8355178356165</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,19 +3274,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>119.217492058804</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>85.26980621371689</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>199.3413494732649</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -3356,10 +3356,10 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>104.7777180703237</v>
+        <v>15.86252774276143</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>85.6887943319354</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>153.1433946664671</v>
@@ -3413,7 +3413,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y36" t="n">
-        <v>91.07423639963001</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="37">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>129.9996011637598</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.35255397088749</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>167.8355178356165</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>70.34276649299579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3511,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>265.4437360988048</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>3.166568202456233</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T38" t="n">
         <v>210.6370840092685</v>
       </c>
       <c r="U38" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>176.6953291160427</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>37.94547920291159</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D39" t="n">
         <v>115.7281862028015</v>
@@ -3596,10 +3596,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>104.7777180703237</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>85.6887943319354</v>
+        <v>15.86252774276156</v>
       </c>
       <c r="T39" t="n">
         <v>153.1433946664671</v>
@@ -3663,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>129.9996011637598</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.35255397088749</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>167.8355178356165</v>
@@ -3726,7 +3726,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>136.9207512980086</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>219.0670903312002</v>
       </c>
       <c r="D41" t="n">
-        <v>134.1019925515375</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3827,10 +3827,10 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E42" t="n">
-        <v>119.2878878475953</v>
+        <v>79.23731955398918</v>
       </c>
       <c r="F42" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>104.7777180703237</v>
@@ -3875,7 +3875,7 @@
         <v>153.1433946664671</v>
       </c>
       <c r="U42" t="n">
-        <v>47.38128939494084</v>
+        <v>195.3021387078687</v>
       </c>
       <c r="V42" t="n">
         <v>211.5744117368965</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>16.5609498868105</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -3915,7 +3915,7 @@
         <v>164.6200590018132</v>
       </c>
       <c r="H43" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>86.37808034979749</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.35255397088749</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U43" t="n">
-        <v>137.073099939243</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6005254298603137</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>85.26980621371689</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>210.6370840092685</v>
+        <v>185.041208648929</v>
       </c>
       <c r="U44" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4061,7 +4061,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E45" t="n">
         <v>119.2878878475953</v>
@@ -4073,7 +4073,7 @@
         <v>104.7777180703237</v>
       </c>
       <c r="H45" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>85.6887943319354</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>153.1433946664671</v>
@@ -4115,13 +4115,13 @@
         <v>195.3021387078687</v>
       </c>
       <c r="V45" t="n">
-        <v>211.5744117368965</v>
+        <v>122.6592214093336</v>
       </c>
       <c r="W45" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
-        <v>56.68126460043435</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
         <v>157.8079400398083</v>
@@ -4137,7 +4137,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>29.11948557459214</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>79.98152281130298</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>233.0607131231338</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>327.7588696812413</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="C11" t="n">
-        <v>327.7588696812413</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7588696812413</v>
+        <v>1083.689746671394</v>
       </c>
       <c r="E11" t="n">
-        <v>327.7588696812413</v>
+        <v>669.3495311882903</v>
       </c>
       <c r="F11" t="n">
-        <v>327.7588696812413</v>
+        <v>442.3123922073057</v>
       </c>
       <c r="G11" t="n">
-        <v>327.7588696812413</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="H11" t="n">
-        <v>38.93954424562315</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I11" t="n">
         <v>35.74099050576839</v>
       </c>
       <c r="J11" t="n">
-        <v>142.5703854689898</v>
+        <v>142.57038546899</v>
       </c>
       <c r="K11" t="n">
-        <v>323.2290557446588</v>
+        <v>323.2290557446593</v>
       </c>
       <c r="L11" t="n">
-        <v>562.2973247064784</v>
+        <v>562.297324706479</v>
       </c>
       <c r="M11" t="n">
-        <v>841.1329596152972</v>
+        <v>841.1329596152976</v>
       </c>
       <c r="N11" t="n">
-        <v>1126.349039004049</v>
+        <v>1126.34903900405</v>
       </c>
       <c r="O11" t="n">
-        <v>1390.269714189818</v>
+        <v>1390.269714189819</v>
       </c>
       <c r="P11" t="n">
         <v>1601.546999092374</v>
@@ -5068,25 +5068,25 @@
         <v>1787.049525288419</v>
       </c>
       <c r="S11" t="n">
-        <v>1787.049525288419</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="T11" t="n">
-        <v>1787.049525288419</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="U11" t="n">
-        <v>1787.049525288419</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="V11" t="n">
-        <v>1437.2119706249</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="W11" t="n">
-        <v>1053.451669760069</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="X11" t="n">
-        <v>1053.451669760069</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="Y11" t="n">
-        <v>652.5149967081587</v>
+        <v>1488.153676578333</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.9219942215105</v>
+        <v>445.5543329492906</v>
       </c>
       <c r="C12" t="n">
-        <v>487.9269229704562</v>
+        <v>371.0297651898487</v>
       </c>
       <c r="D12" t="n">
         <v>371.0297651898487</v>
@@ -5138,7 +5138,7 @@
         <v>1335.867598057628</v>
       </c>
       <c r="P12" t="n">
-        <v>1599.010322681675</v>
+        <v>1498.135044871826</v>
       </c>
       <c r="Q12" t="n">
         <v>1687.264539063038</v>
@@ -5153,19 +5153,19 @@
         <v>1545.804889936498</v>
       </c>
       <c r="U12" t="n">
-        <v>1384.594630989425</v>
+        <v>1348.530002352792</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.883103982459</v>
+        <v>1134.818475345826</v>
       </c>
       <c r="W12" t="n">
-        <v>957.6499357187877</v>
+        <v>921.5853070821544</v>
       </c>
       <c r="X12" t="n">
-        <v>781.3239538576805</v>
+        <v>745.2593252210472</v>
       </c>
       <c r="Y12" t="n">
-        <v>621.9219942215105</v>
+        <v>585.8573655848772</v>
       </c>
     </row>
     <row r="13">
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>687.060464084567</v>
+        <v>589.7745815283674</v>
       </c>
       <c r="C13" t="n">
-        <v>687.060464084567</v>
+        <v>589.7745815283674</v>
       </c>
       <c r="D13" t="n">
-        <v>527.5658194074771</v>
+        <v>430.2799368512775</v>
       </c>
       <c r="E13" t="n">
-        <v>366.6550042757966</v>
+        <v>430.2799368512775</v>
       </c>
       <c r="F13" t="n">
-        <v>202.0238783863878</v>
+        <v>430.2799368512775</v>
       </c>
       <c r="G13" t="n">
-        <v>35.74099050576839</v>
+        <v>263.9970489706581</v>
       </c>
       <c r="H13" t="n">
-        <v>35.74099050576839</v>
+        <v>122.991576717685</v>
       </c>
       <c r="I13" t="n">
         <v>35.74099050576839</v>
       </c>
       <c r="J13" t="n">
-        <v>51.86344281542368</v>
+        <v>116.8648064467601</v>
       </c>
       <c r="K13" t="n">
-        <v>316.5851657192591</v>
+        <v>381.5865293505955</v>
       </c>
       <c r="L13" t="n">
-        <v>403.4820506015302</v>
+        <v>782.4625254678897</v>
       </c>
       <c r="M13" t="n">
-        <v>841.3885860026091</v>
+        <v>875.4027113546831</v>
       </c>
       <c r="N13" t="n">
-        <v>1267.335461440039</v>
+        <v>969.3152853445271</v>
       </c>
       <c r="O13" t="n">
-        <v>1345.852122698592</v>
+        <v>1321.756545649937</v>
       </c>
       <c r="P13" t="n">
         <v>1642.118498692662</v>
@@ -5229,22 +5229,22 @@
         <v>1575.748442655587</v>
       </c>
       <c r="T13" t="n">
-        <v>1427.715580030215</v>
+        <v>1340.333580915048</v>
       </c>
       <c r="U13" t="n">
-        <v>1427.715580030215</v>
+        <v>1057.588206362654</v>
       </c>
       <c r="V13" t="n">
-        <v>1153.829834969737</v>
+        <v>783.7024613021761</v>
       </c>
       <c r="W13" t="n">
-        <v>874.7601704786114</v>
+        <v>783.7024613021761</v>
       </c>
       <c r="X13" t="n">
-        <v>874.7601704786114</v>
+        <v>777.4742879224118</v>
       </c>
       <c r="Y13" t="n">
-        <v>874.7601704786114</v>
+        <v>777.4742879224118</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1403.289224423588</v>
+        <v>866.8959932388107</v>
       </c>
       <c r="C14" t="n">
-        <v>993.164633736858</v>
+        <v>456.7714025520808</v>
       </c>
       <c r="D14" t="n">
-        <v>993.164633736858</v>
+        <v>456.7714025520808</v>
       </c>
       <c r="E14" t="n">
-        <v>578.8244182537547</v>
+        <v>456.7714025520808</v>
       </c>
       <c r="F14" t="n">
-        <v>578.8244182537547</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="G14" t="n">
-        <v>324.5603159413865</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="H14" t="n">
         <v>35.74099050576839</v>
@@ -5281,19 +5281,19 @@
         <v>142.57038546899</v>
       </c>
       <c r="K14" t="n">
-        <v>323.2290557446593</v>
+        <v>323.229055744659</v>
       </c>
       <c r="L14" t="n">
-        <v>562.297324706479</v>
+        <v>562.2973247064787</v>
       </c>
       <c r="M14" t="n">
-        <v>841.1329596152976</v>
+        <v>841.1329596152974</v>
       </c>
       <c r="N14" t="n">
-        <v>1126.34903900405</v>
+        <v>1126.349039004049</v>
       </c>
       <c r="O14" t="n">
-        <v>1390.269714189819</v>
+        <v>1390.269714189818</v>
       </c>
       <c r="P14" t="n">
         <v>1601.546999092374</v>
@@ -5308,22 +5308,22 @@
         <v>1787.049525288419</v>
       </c>
       <c r="T14" t="n">
-        <v>1787.049525288419</v>
+        <v>1574.284793965926</v>
       </c>
       <c r="U14" t="n">
-        <v>1787.049525288419</v>
+        <v>1574.284793965926</v>
       </c>
       <c r="V14" t="n">
-        <v>1787.049525288419</v>
+        <v>1277.1171729033</v>
       </c>
       <c r="W14" t="n">
-        <v>1403.289224423588</v>
+        <v>1277.1171729033</v>
       </c>
       <c r="X14" t="n">
-        <v>1403.289224423588</v>
+        <v>1277.1171729033</v>
       </c>
       <c r="Y14" t="n">
-        <v>1403.289224423588</v>
+        <v>1277.1171729033</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>585.8573655848772</v>
+        <v>604.9562925854606</v>
       </c>
       <c r="C15" t="n">
-        <v>451.8622943338229</v>
+        <v>470.9612213344063</v>
       </c>
       <c r="D15" t="n">
-        <v>334.9651365532154</v>
+        <v>354.0640635537987</v>
       </c>
       <c r="E15" t="n">
-        <v>214.4723205455433</v>
+        <v>233.5712475461267</v>
       </c>
       <c r="F15" t="n">
-        <v>105.5124407280479</v>
+        <v>124.6113677286313</v>
       </c>
       <c r="G15" t="n">
-        <v>95.3426662485606</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="H15" t="n">
         <v>35.74099050576839</v>
@@ -5357,28 +5357,28 @@
         <v>54.34778796170229</v>
       </c>
       <c r="J15" t="n">
-        <v>110.3534157295929</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K15" t="n">
-        <v>237.7286580436576</v>
+        <v>481.3970620182909</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7610195839799</v>
+        <v>671.4294235586131</v>
       </c>
       <c r="M15" t="n">
-        <v>840.9072146475837</v>
+        <v>901.0277578385036</v>
       </c>
       <c r="N15" t="n">
-        <v>1082.417834835575</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O15" t="n">
-        <v>1524.712592344458</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P15" t="n">
-        <v>1686.980039158656</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q15" t="n">
-        <v>1775.234255540019</v>
+        <v>1687.264539063038</v>
       </c>
       <c r="R15" t="n">
         <v>1787.049525288419</v>
@@ -5402,7 +5402,7 @@
         <v>745.2593252210472</v>
       </c>
       <c r="Y15" t="n">
-        <v>585.8573655848772</v>
+        <v>745.2593252210472</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>195.2356351828584</v>
+        <v>169.5095312621821</v>
       </c>
       <c r="C16" t="n">
-        <v>195.2356351828584</v>
+        <v>169.5095312621821</v>
       </c>
       <c r="D16" t="n">
-        <v>35.74099050576839</v>
+        <v>169.5095312621821</v>
       </c>
       <c r="E16" t="n">
-        <v>35.74099050576839</v>
+        <v>169.5095312621821</v>
       </c>
       <c r="F16" t="n">
-        <v>35.74099050576839</v>
+        <v>169.5095312621821</v>
       </c>
       <c r="G16" t="n">
         <v>35.74099050576839</v>
@@ -5439,22 +5439,22 @@
         <v>116.8648064467601</v>
       </c>
       <c r="K16" t="n">
-        <v>292.4895886706043</v>
+        <v>381.5865293505955</v>
       </c>
       <c r="L16" t="n">
-        <v>379.3864735528754</v>
+        <v>782.4625254678897</v>
       </c>
       <c r="M16" t="n">
-        <v>817.2930089539543</v>
+        <v>1220.369060868969</v>
       </c>
       <c r="N16" t="n">
-        <v>1243.239884391384</v>
+        <v>1630.411328070339</v>
       </c>
       <c r="O16" t="n">
-        <v>1321.756545649937</v>
+        <v>1708.927989328892</v>
       </c>
       <c r="P16" t="n">
-        <v>1642.118498692662</v>
+        <v>1768.392458898499</v>
       </c>
       <c r="Q16" t="n">
         <v>1787.049525288419</v>
@@ -5469,19 +5469,19 @@
         <v>1382.103837451298</v>
       </c>
       <c r="U16" t="n">
-        <v>1382.103837451298</v>
+        <v>1099.358462898904</v>
       </c>
       <c r="V16" t="n">
-        <v>1108.21809239082</v>
+        <v>1099.358462898904</v>
       </c>
       <c r="W16" t="n">
-        <v>829.1484278996941</v>
+        <v>820.2887984077784</v>
       </c>
       <c r="X16" t="n">
-        <v>590.8045657593775</v>
+        <v>581.9449362674618</v>
       </c>
       <c r="Y16" t="n">
-        <v>382.9353415769028</v>
+        <v>357.2092376562265</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>635.6318997419429</v>
+        <v>861.2353324590204</v>
       </c>
       <c r="C17" t="n">
-        <v>635.6318997419429</v>
+        <v>861.2353324590204</v>
       </c>
       <c r="D17" t="n">
-        <v>635.6318997419429</v>
+        <v>456.7714025520808</v>
       </c>
       <c r="E17" t="n">
-        <v>324.5603159413865</v>
+        <v>456.7714025520808</v>
       </c>
       <c r="F17" t="n">
-        <v>324.5603159413865</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="G17" t="n">
-        <v>324.5603159413865</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="H17" t="n">
         <v>35.74099050576839</v>
@@ -5515,52 +5515,52 @@
         <v>35.74099050576839</v>
       </c>
       <c r="J17" t="n">
-        <v>142.5703854689904</v>
+        <v>142.5703854689898</v>
       </c>
       <c r="K17" t="n">
-        <v>323.2290557446594</v>
+        <v>323.2290557446588</v>
       </c>
       <c r="L17" t="n">
-        <v>562.297324706479</v>
+        <v>562.2973247064784</v>
       </c>
       <c r="M17" t="n">
-        <v>841.1329596152979</v>
+        <v>841.1329596152973</v>
       </c>
       <c r="N17" t="n">
-        <v>1126.34903900405</v>
+        <v>1126.349039004049</v>
       </c>
       <c r="O17" t="n">
-        <v>1390.269714189819</v>
+        <v>1390.269714189818</v>
       </c>
       <c r="P17" t="n">
-        <v>1601.546999092374</v>
+        <v>1601.546999092373</v>
       </c>
       <c r="Q17" t="n">
         <v>1740.697478824118</v>
       </c>
       <c r="R17" t="n">
-        <v>1787.04952528842</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S17" t="n">
-        <v>1787.04952528842</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T17" t="n">
-        <v>1787.04952528842</v>
+        <v>1574.284793965926</v>
       </c>
       <c r="U17" t="n">
-        <v>1787.04952528842</v>
+        <v>1574.284793965926</v>
       </c>
       <c r="V17" t="n">
-        <v>1437.2119706249</v>
+        <v>1574.284793965926</v>
       </c>
       <c r="W17" t="n">
-        <v>1437.2119706249</v>
+        <v>1574.284793965926</v>
       </c>
       <c r="X17" t="n">
-        <v>1036.568572793853</v>
+        <v>1173.641396134879</v>
       </c>
       <c r="Y17" t="n">
-        <v>635.6318997419429</v>
+        <v>1173.641396134879</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>445.5543329492908</v>
+        <v>532.1086706583163</v>
       </c>
       <c r="C18" t="n">
-        <v>311.5592616982365</v>
+        <v>398.113599407262</v>
       </c>
       <c r="D18" t="n">
-        <v>250.5369491821766</v>
+        <v>281.2164416266544</v>
       </c>
       <c r="E18" t="n">
-        <v>250.5369491821766</v>
+        <v>160.7236256189824</v>
       </c>
       <c r="F18" t="n">
-        <v>141.5770693646812</v>
+        <v>51.763745801487</v>
       </c>
       <c r="G18" t="n">
         <v>35.74099050576839</v>
@@ -5591,55 +5591,55 @@
         <v>35.74099050576839</v>
       </c>
       <c r="I18" t="n">
-        <v>35.74099050576839</v>
+        <v>54.34778796170229</v>
       </c>
       <c r="J18" t="n">
-        <v>91.74661827365904</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K18" t="n">
-        <v>399.372862880626</v>
+        <v>481.3970620182909</v>
       </c>
       <c r="L18" t="n">
-        <v>841.6676203895098</v>
+        <v>671.4294235586131</v>
       </c>
       <c r="M18" t="n">
-        <v>1071.2659546694</v>
+        <v>901.0277578385036</v>
       </c>
       <c r="N18" t="n">
-        <v>1312.776574857391</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O18" t="n">
-        <v>1524.712592344459</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P18" t="n">
-        <v>1686.980039158657</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q18" t="n">
-        <v>1775.234255540019</v>
+        <v>1687.264539063038</v>
       </c>
       <c r="R18" t="n">
-        <v>1787.04952528842</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S18" t="n">
-        <v>1700.495187579394</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T18" t="n">
-        <v>1545.804889936498</v>
+        <v>1632.359227645523</v>
       </c>
       <c r="U18" t="n">
-        <v>1348.530002352792</v>
+        <v>1435.084340061818</v>
       </c>
       <c r="V18" t="n">
-        <v>1134.818475345826</v>
+        <v>1221.372813054851</v>
       </c>
       <c r="W18" t="n">
-        <v>921.5853070821546</v>
+        <v>1008.13964479118</v>
       </c>
       <c r="X18" t="n">
-        <v>745.2593252210474</v>
+        <v>831.813662930073</v>
       </c>
       <c r="Y18" t="n">
-        <v>585.8573655848775</v>
+        <v>672.411703293903</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.55323605949872</v>
+        <v>673.3148943645431</v>
       </c>
       <c r="C19" t="n">
-        <v>41.55323605949872</v>
+        <v>522.4293381951584</v>
       </c>
       <c r="D19" t="n">
-        <v>41.55323605949872</v>
+        <v>362.9346935180683</v>
       </c>
       <c r="E19" t="n">
-        <v>35.74099050576839</v>
+        <v>202.0238783863878</v>
       </c>
       <c r="F19" t="n">
-        <v>35.74099050576839</v>
+        <v>202.0238783863878</v>
       </c>
       <c r="G19" t="n">
         <v>35.74099050576839</v>
@@ -5673,52 +5673,52 @@
         <v>35.74099050576839</v>
       </c>
       <c r="J19" t="n">
-        <v>51.8634428154237</v>
+        <v>116.8648064467601</v>
       </c>
       <c r="K19" t="n">
-        <v>316.5851657192591</v>
+        <v>381.5865293505955</v>
       </c>
       <c r="L19" t="n">
-        <v>505.6604337587127</v>
+        <v>782.4625254678897</v>
       </c>
       <c r="M19" t="n">
-        <v>943.5669691597916</v>
+        <v>875.4027113546831</v>
       </c>
       <c r="N19" t="n">
-        <v>1369.513844597221</v>
+        <v>1054.439085178481</v>
       </c>
       <c r="O19" t="n">
-        <v>1448.030505855775</v>
+        <v>1448.030505855774</v>
       </c>
       <c r="P19" t="n">
         <v>1768.392458898499</v>
       </c>
       <c r="Q19" t="n">
-        <v>1787.04952528842</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="R19" t="n">
-        <v>1745.27926875217</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S19" t="n">
-        <v>1575.748442655587</v>
+        <v>1617.518699191837</v>
       </c>
       <c r="T19" t="n">
-        <v>1340.333580915048</v>
+        <v>1382.103837451298</v>
       </c>
       <c r="U19" t="n">
-        <v>1057.588206362654</v>
+        <v>1099.358462898904</v>
       </c>
       <c r="V19" t="n">
-        <v>783.7024613021763</v>
+        <v>1099.358462898904</v>
       </c>
       <c r="W19" t="n">
-        <v>504.6327968110506</v>
+        <v>1099.358462898904</v>
       </c>
       <c r="X19" t="n">
-        <v>266.288934670734</v>
+        <v>861.0146007585874</v>
       </c>
       <c r="Y19" t="n">
-        <v>41.55323605949872</v>
+        <v>861.0146007585874</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>395.6270555601194</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="C20" t="n">
-        <v>35.74099050576839</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="D20" t="n">
-        <v>35.74099050576839</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="E20" t="n">
-        <v>35.74099050576839</v>
+        <v>1073.81346109523</v>
       </c>
       <c r="F20" t="n">
-        <v>35.74099050576839</v>
+        <v>734.3302713827786</v>
       </c>
       <c r="G20" t="n">
-        <v>35.74099050576839</v>
+        <v>327.7588696812413</v>
       </c>
       <c r="H20" t="n">
-        <v>35.74099050576839</v>
+        <v>38.93954424562316</v>
       </c>
       <c r="I20" t="n">
         <v>35.74099050576839</v>
@@ -5761,13 +5761,13 @@
         <v>562.2973247064784</v>
       </c>
       <c r="M20" t="n">
-        <v>841.1329596152973</v>
+        <v>841.1329596152979</v>
       </c>
       <c r="N20" t="n">
-        <v>1126.349039004049</v>
+        <v>1126.34903900405</v>
       </c>
       <c r="O20" t="n">
-        <v>1390.269714189818</v>
+        <v>1390.269714189819</v>
       </c>
       <c r="P20" t="n">
         <v>1601.546999092374</v>
@@ -5779,25 +5779,25 @@
         <v>1787.04952528842</v>
       </c>
       <c r="S20" t="n">
-        <v>1787.04952528842</v>
+        <v>1700.918407900827</v>
       </c>
       <c r="T20" t="n">
-        <v>1787.04952528842</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="U20" t="n">
-        <v>1530.16158414038</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="V20" t="n">
-        <v>1180.324029476861</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="W20" t="n">
-        <v>796.5637286120293</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="X20" t="n">
-        <v>796.5637286120293</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="Y20" t="n">
-        <v>395.6270555601194</v>
+        <v>1488.153676578333</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>445.5543329492908</v>
+        <v>532.1086706583166</v>
       </c>
       <c r="C21" t="n">
-        <v>438.568718895753</v>
+        <v>398.1135994072623</v>
       </c>
       <c r="D21" t="n">
-        <v>321.6715611151454</v>
+        <v>281.2164416266547</v>
       </c>
       <c r="E21" t="n">
-        <v>201.1787451074734</v>
+        <v>160.7236256189827</v>
       </c>
       <c r="F21" t="n">
-        <v>201.1787451074734</v>
+        <v>51.76374580148723</v>
       </c>
       <c r="G21" t="n">
-        <v>95.34266624856062</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="H21" t="n">
         <v>35.74099050576839</v>
       </c>
       <c r="I21" t="n">
-        <v>35.74099050576839</v>
+        <v>54.34778796170229</v>
       </c>
       <c r="J21" t="n">
-        <v>205.9315600363251</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K21" t="n">
-        <v>333.3068023503898</v>
+        <v>481.3970620182909</v>
       </c>
       <c r="L21" t="n">
-        <v>523.339163890712</v>
+        <v>671.4294235586131</v>
       </c>
       <c r="M21" t="n">
-        <v>752.9374981706026</v>
+        <v>901.0277578385036</v>
       </c>
       <c r="N21" t="n">
-        <v>994.4481183585935</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O21" t="n">
-        <v>1436.742875867477</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P21" t="n">
-        <v>1599.010322681675</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q21" t="n">
         <v>1687.264539063038</v>
@@ -5858,25 +5858,25 @@
         <v>1787.04952528842</v>
       </c>
       <c r="S21" t="n">
-        <v>1700.495187579394</v>
+        <v>1787.04952528842</v>
       </c>
       <c r="T21" t="n">
-        <v>1545.804889936498</v>
+        <v>1632.359227645524</v>
       </c>
       <c r="U21" t="n">
-        <v>1348.530002352792</v>
+        <v>1435.084340061818</v>
       </c>
       <c r="V21" t="n">
-        <v>1134.818475345826</v>
+        <v>1221.372813054852</v>
       </c>
       <c r="W21" t="n">
-        <v>921.5853070821546</v>
+        <v>1008.13964479118</v>
       </c>
       <c r="X21" t="n">
-        <v>745.2593252210474</v>
+        <v>831.8136629300732</v>
       </c>
       <c r="Y21" t="n">
-        <v>585.8573655848775</v>
+        <v>672.4117032939032</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>35.74099050576839</v>
+        <v>453.9055904877132</v>
       </c>
       <c r="C22" t="n">
-        <v>35.74099050576839</v>
+        <v>453.9055904877132</v>
       </c>
       <c r="D22" t="n">
-        <v>35.74099050576839</v>
+        <v>453.9055904877132</v>
       </c>
       <c r="E22" t="n">
-        <v>35.74099050576839</v>
+        <v>453.9055904877132</v>
       </c>
       <c r="F22" t="n">
-        <v>35.74099050576839</v>
+        <v>289.2744645983045</v>
       </c>
       <c r="G22" t="n">
-        <v>35.74099050576839</v>
+        <v>122.991576717685</v>
       </c>
       <c r="H22" t="n">
-        <v>35.74099050576839</v>
+        <v>122.991576717685</v>
       </c>
       <c r="I22" t="n">
         <v>35.74099050576839</v>
       </c>
       <c r="J22" t="n">
-        <v>51.8634428154237</v>
+        <v>100.9601982107012</v>
       </c>
       <c r="K22" t="n">
-        <v>110.304972133545</v>
+        <v>365.6819211145366</v>
       </c>
       <c r="L22" t="n">
-        <v>409.2780636484207</v>
+        <v>766.5579172318307</v>
       </c>
       <c r="M22" t="n">
-        <v>502.2182495352141</v>
+        <v>1204.46445263291</v>
       </c>
       <c r="N22" t="n">
-        <v>928.1651249726436</v>
+        <v>1630.411328070339</v>
       </c>
       <c r="O22" t="n">
-        <v>1321.756545649938</v>
+        <v>1708.927989328893</v>
       </c>
       <c r="P22" t="n">
-        <v>1642.118498692662</v>
+        <v>1768.392458898499</v>
       </c>
       <c r="Q22" t="n">
         <v>1787.04952528842</v>
       </c>
       <c r="R22" t="n">
-        <v>1745.27926875217</v>
+        <v>1787.04952528842</v>
       </c>
       <c r="S22" t="n">
-        <v>1575.748442655587</v>
+        <v>1617.518699191837</v>
       </c>
       <c r="T22" t="n">
-        <v>1340.333580915048</v>
+        <v>1382.103837451298</v>
       </c>
       <c r="U22" t="n">
-        <v>1057.588206362654</v>
+        <v>1099.358462898904</v>
       </c>
       <c r="V22" t="n">
-        <v>783.7024613021763</v>
+        <v>957.7109535900742</v>
       </c>
       <c r="W22" t="n">
-        <v>504.6327968110506</v>
+        <v>678.6412890989485</v>
       </c>
       <c r="X22" t="n">
-        <v>266.288934670734</v>
+        <v>678.6412890989485</v>
       </c>
       <c r="Y22" t="n">
-        <v>41.55323605949872</v>
+        <v>453.9055904877132</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>311.0553658207958</v>
+        <v>1531.482266006758</v>
       </c>
       <c r="C23" t="n">
-        <v>311.0553658207958</v>
+        <v>1121.357675320028</v>
       </c>
       <c r="D23" t="n">
-        <v>311.0553658207958</v>
+        <v>716.8937454130887</v>
       </c>
       <c r="E23" t="n">
-        <v>311.0553658207958</v>
+        <v>302.5535299299854</v>
       </c>
       <c r="F23" t="n">
-        <v>311.0553658207958</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="G23" t="n">
-        <v>43.75524500103158</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="H23" t="n">
-        <v>43.75524500103158</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="I23" t="n">
         <v>40.55669126117681</v>
@@ -5995,19 +5995,19 @@
         <v>328.0447565000673</v>
       </c>
       <c r="L23" t="n">
-        <v>580.0289430286555</v>
+        <v>567.1130254618869</v>
       </c>
       <c r="M23" t="n">
-        <v>1081.917997385719</v>
+        <v>845.9486603707057</v>
       </c>
       <c r="N23" t="n">
-        <v>1367.134076774471</v>
+        <v>1131.164739759458</v>
       </c>
       <c r="O23" t="n">
-        <v>1631.054751960239</v>
+        <v>1395.085414945227</v>
       </c>
       <c r="P23" t="n">
-        <v>1842.332036862795</v>
+        <v>1606.362699847782</v>
       </c>
       <c r="Q23" t="n">
         <v>1981.482516594539</v>
@@ -6019,22 +6019,22 @@
         <v>1941.703445671247</v>
       </c>
       <c r="T23" t="n">
-        <v>1728.938714348754</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="U23" t="n">
-        <v>1472.050773200715</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="V23" t="n">
-        <v>1122.213218537195</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="W23" t="n">
-        <v>1122.213218537195</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="X23" t="n">
-        <v>1122.213218537195</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="Y23" t="n">
-        <v>721.2765454852853</v>
+        <v>1941.703445671247</v>
       </c>
     </row>
     <row r="24">
@@ -6059,7 +6059,7 @@
         <v>205.9944458628822</v>
       </c>
       <c r="G24" t="n">
-        <v>100.1583670039692</v>
+        <v>100.1583670039693</v>
       </c>
       <c r="H24" t="n">
         <v>40.55669126117681</v>
@@ -6074,22 +6074,22 @@
         <v>223.9375613431321</v>
       </c>
       <c r="L24" t="n">
-        <v>413.9699228834544</v>
+        <v>725.8266157001951</v>
       </c>
       <c r="M24" t="n">
-        <v>643.5682571633449</v>
+        <v>1227.715670057258</v>
       </c>
       <c r="N24" t="n">
-        <v>885.0788773513359</v>
+        <v>1553.561612627812</v>
       </c>
       <c r="O24" t="n">
-        <v>1386.967931708399</v>
+        <v>1765.497630114879</v>
       </c>
       <c r="P24" t="n">
-        <v>1888.856986065462</v>
+        <v>1927.765076929077</v>
       </c>
       <c r="Q24" t="n">
-        <v>1977.111202446825</v>
+        <v>2016.01929331044</v>
       </c>
       <c r="R24" t="n">
         <v>2027.83456305884</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>364.6824618276755</v>
+        <v>537.1920047205496</v>
       </c>
       <c r="C25" t="n">
-        <v>364.6824618276755</v>
+        <v>366.0986322822661</v>
       </c>
       <c r="D25" t="n">
-        <v>205.1878171505855</v>
+        <v>366.0986322822661</v>
       </c>
       <c r="E25" t="n">
         <v>205.1878171505855</v>
@@ -6147,22 +6147,22 @@
         <v>40.55669126117681</v>
       </c>
       <c r="J25" t="n">
-        <v>56.67914357083211</v>
+        <v>121.6805072021685</v>
       </c>
       <c r="K25" t="n">
-        <v>115.1206728889534</v>
+        <v>386.4022301060039</v>
       </c>
       <c r="L25" t="n">
-        <v>305.0967519045561</v>
+        <v>565.9942353776742</v>
       </c>
       <c r="M25" t="n">
-        <v>743.003287305635</v>
+        <v>1003.900770778753</v>
       </c>
       <c r="N25" t="n">
-        <v>1168.950162743065</v>
+        <v>1429.847646216183</v>
       </c>
       <c r="O25" t="n">
-        <v>1562.541583420358</v>
+        <v>1823.439066893476</v>
       </c>
       <c r="P25" t="n">
         <v>1882.903536463083</v>
@@ -6171,28 +6171,28 @@
         <v>2027.83456305884</v>
       </c>
       <c r="R25" t="n">
-        <v>1986.06430652259</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="S25" t="n">
-        <v>1816.533480426008</v>
+        <v>1976.341543158289</v>
       </c>
       <c r="T25" t="n">
-        <v>1581.118618685469</v>
+        <v>1740.926681417749</v>
       </c>
       <c r="U25" t="n">
-        <v>1298.373244133075</v>
+        <v>1740.926681417749</v>
       </c>
       <c r="V25" t="n">
-        <v>1024.487499072597</v>
+        <v>1467.040936357271</v>
       </c>
       <c r="W25" t="n">
-        <v>745.4178345814714</v>
+        <v>1187.971271866146</v>
       </c>
       <c r="X25" t="n">
-        <v>507.0739724411548</v>
+        <v>949.6274097258292</v>
       </c>
       <c r="Y25" t="n">
-        <v>507.0739724411548</v>
+        <v>724.8917111145939</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>423.6473620080468</v>
+        <v>868.1585050090266</v>
       </c>
       <c r="C26" t="n">
-        <v>423.6473620080468</v>
+        <v>868.1585050090266</v>
       </c>
       <c r="D26" t="n">
-        <v>423.6473620080468</v>
+        <v>868.1585050090266</v>
       </c>
       <c r="E26" t="n">
-        <v>40.5566912611768</v>
+        <v>868.1585050090266</v>
       </c>
       <c r="F26" t="n">
-        <v>40.5566912611768</v>
+        <v>447.1280929627141</v>
       </c>
       <c r="G26" t="n">
         <v>40.5566912611768</v>
@@ -6229,25 +6229,25 @@
         <v>147.3860862243982</v>
       </c>
       <c r="K26" t="n">
-        <v>328.0447565000671</v>
+        <v>328.0447565000673</v>
       </c>
       <c r="L26" t="n">
-        <v>567.1130254618867</v>
+        <v>567.1130254618869</v>
       </c>
       <c r="M26" t="n">
-        <v>845.9486603707054</v>
+        <v>845.9486603707057</v>
       </c>
       <c r="N26" t="n">
-        <v>1131.164739759457</v>
+        <v>1131.164739759458</v>
       </c>
       <c r="O26" t="n">
-        <v>1395.085414945226</v>
+        <v>1395.085414945227</v>
       </c>
       <c r="P26" t="n">
-        <v>1842.332036862795</v>
+        <v>1606.362699847782</v>
       </c>
       <c r="Q26" t="n">
-        <v>1981.482516594539</v>
+        <v>1854.486849518397</v>
       </c>
       <c r="R26" t="n">
         <v>2027.83456305884</v>
@@ -6256,22 +6256,22 @@
         <v>2027.83456305884</v>
       </c>
       <c r="T26" t="n">
-        <v>1815.069831736347</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="U26" t="n">
-        <v>1558.181890588307</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="V26" t="n">
-        <v>1208.344335924788</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="W26" t="n">
-        <v>824.5840350599567</v>
+        <v>1644.074262194009</v>
       </c>
       <c r="X26" t="n">
-        <v>824.5840350599567</v>
+        <v>1269.095178060937</v>
       </c>
       <c r="Y26" t="n">
-        <v>423.6473620080468</v>
+        <v>868.1585050090266</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>40.5566912611768</v>
       </c>
       <c r="J27" t="n">
-        <v>96.56231902906741</v>
+        <v>271.1051808247884</v>
       </c>
       <c r="K27" t="n">
-        <v>223.937561343132</v>
+        <v>398.480423138853</v>
       </c>
       <c r="L27" t="n">
-        <v>725.826615700195</v>
+        <v>588.5127846791753</v>
       </c>
       <c r="M27" t="n">
-        <v>972.4293848969563</v>
+        <v>818.1111189590658</v>
       </c>
       <c r="N27" t="n">
-        <v>1213.940005084947</v>
+        <v>1059.621739147057</v>
       </c>
       <c r="O27" t="n">
-        <v>1425.876022572014</v>
+        <v>1271.557756634124</v>
       </c>
       <c r="P27" t="n">
-        <v>1927.765076929077</v>
+        <v>1433.825203448322</v>
       </c>
       <c r="Q27" t="n">
-        <v>2016.01929331044</v>
+        <v>1928.049576833459</v>
       </c>
       <c r="R27" t="n">
         <v>2027.83456305884</v>
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>371.1447083765503</v>
+        <v>136.4088239721248</v>
       </c>
       <c r="C28" t="n">
-        <v>200.0513359382668</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="D28" t="n">
         <v>40.5566912611768</v>
@@ -6384,52 +6384,52 @@
         <v>40.5566912611768</v>
       </c>
       <c r="J28" t="n">
-        <v>121.6805072021685</v>
+        <v>56.6791435708321</v>
       </c>
       <c r="K28" t="n">
-        <v>249.187105301547</v>
+        <v>321.4008664746675</v>
       </c>
       <c r="L28" t="n">
-        <v>650.0631014188411</v>
+        <v>722.2768625919616</v>
       </c>
       <c r="M28" t="n">
-        <v>743.0032873056346</v>
+        <v>815.217048478755</v>
       </c>
       <c r="N28" t="n">
-        <v>1168.950162743064</v>
+        <v>1241.163923916185</v>
       </c>
       <c r="O28" t="n">
-        <v>1562.541583420358</v>
+        <v>1634.755344593479</v>
       </c>
       <c r="P28" t="n">
-        <v>1882.903536463082</v>
+        <v>1955.117297636203</v>
       </c>
       <c r="Q28" t="n">
         <v>2027.83456305884</v>
       </c>
       <c r="R28" t="n">
-        <v>1986.06430652259</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="S28" t="n">
-        <v>1816.533480426008</v>
+        <v>1858.303736962258</v>
       </c>
       <c r="T28" t="n">
-        <v>1581.118618685469</v>
+        <v>1622.888875221719</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.373244133075</v>
+        <v>1340.143500669325</v>
       </c>
       <c r="V28" t="n">
-        <v>1024.487499072597</v>
+        <v>1066.257755608847</v>
       </c>
       <c r="W28" t="n">
-        <v>745.4178345814712</v>
+        <v>787.1880911177211</v>
       </c>
       <c r="X28" t="n">
-        <v>745.4178345814712</v>
+        <v>548.8442289774046</v>
       </c>
       <c r="Y28" t="n">
-        <v>558.8444147705947</v>
+        <v>324.1085303661692</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1181.644711343238</v>
+        <v>1164.746644226211</v>
       </c>
       <c r="C29" t="n">
-        <v>875.9273187905926</v>
+        <v>1164.746644226211</v>
       </c>
       <c r="D29" t="n">
-        <v>875.9273187905926</v>
+        <v>1164.746644226211</v>
       </c>
       <c r="E29" t="n">
-        <v>461.5871033074893</v>
+        <v>750.4064287431074</v>
       </c>
       <c r="F29" t="n">
-        <v>40.5566912611768</v>
+        <v>329.3760166967949</v>
       </c>
       <c r="G29" t="n">
-        <v>40.5566912611768</v>
+        <v>329.3760166967949</v>
       </c>
       <c r="H29" t="n">
         <v>40.5566912611768</v>
@@ -6466,25 +6466,25 @@
         <v>147.3860862243982</v>
       </c>
       <c r="K29" t="n">
-        <v>328.0447565000671</v>
+        <v>437.0184264389389</v>
       </c>
       <c r="L29" t="n">
-        <v>567.1130254618867</v>
+        <v>676.0866954007586</v>
       </c>
       <c r="M29" t="n">
-        <v>845.9486603707054</v>
+        <v>954.9223303095774</v>
       </c>
       <c r="N29" t="n">
-        <v>1131.164739759457</v>
+        <v>1240.138409698329</v>
       </c>
       <c r="O29" t="n">
-        <v>1395.085414945226</v>
+        <v>1504.059084884098</v>
       </c>
       <c r="P29" t="n">
-        <v>1606.362699847782</v>
+        <v>1715.336369786654</v>
       </c>
       <c r="Q29" t="n">
-        <v>1981.482516594539</v>
+        <v>1854.486849518397</v>
       </c>
       <c r="R29" t="n">
         <v>2027.83456305884</v>
@@ -6493,22 +6493,22 @@
         <v>1941.703445671247</v>
       </c>
       <c r="T29" t="n">
-        <v>1941.703445671247</v>
+        <v>1728.938714348754</v>
       </c>
       <c r="U29" t="n">
-        <v>1941.703445671247</v>
+        <v>1574.9678238907</v>
       </c>
       <c r="V29" t="n">
-        <v>1591.865891007728</v>
+        <v>1574.9678238907</v>
       </c>
       <c r="W29" t="n">
-        <v>1591.865891007728</v>
+        <v>1574.9678238907</v>
       </c>
       <c r="X29" t="n">
-        <v>1591.865891007728</v>
+        <v>1574.9678238907</v>
       </c>
       <c r="Y29" t="n">
-        <v>1591.865891007728</v>
+        <v>1574.9678238907</v>
       </c>
     </row>
     <row r="30">
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>686.3393707197113</v>
+        <v>686.3393707197114</v>
       </c>
       <c r="C30" t="n">
-        <v>552.3442994686569</v>
+        <v>552.3442994686571</v>
       </c>
       <c r="D30" t="n">
-        <v>435.4471416880493</v>
+        <v>435.4471416880494</v>
       </c>
       <c r="E30" t="n">
-        <v>314.9543256803773</v>
+        <v>314.9543256803775</v>
       </c>
       <c r="F30" t="n">
-        <v>205.9944458628819</v>
+        <v>205.994445862882</v>
       </c>
       <c r="G30" t="n">
-        <v>100.158367003969</v>
+        <v>100.1583670039693</v>
       </c>
       <c r="H30" t="n">
         <v>40.5566912611768</v>
       </c>
       <c r="I30" t="n">
-        <v>59.1634887171107</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J30" t="n">
-        <v>358.8375204596346</v>
+        <v>271.1051808247884</v>
       </c>
       <c r="K30" t="n">
-        <v>486.2127627736992</v>
+        <v>398.480423138853</v>
       </c>
       <c r="L30" t="n">
-        <v>676.2451243140214</v>
+        <v>588.5127846791753</v>
       </c>
       <c r="M30" t="n">
-        <v>905.8434585939119</v>
+        <v>818.1111189590658</v>
       </c>
       <c r="N30" t="n">
-        <v>1407.732512950975</v>
+        <v>1059.621739147057</v>
       </c>
       <c r="O30" t="n">
-        <v>1619.668530438042</v>
+        <v>1271.557756634124</v>
       </c>
       <c r="P30" t="n">
-        <v>1839.795360452096</v>
+        <v>1433.825203448322</v>
       </c>
       <c r="Q30" t="n">
-        <v>1928.049576833458</v>
+        <v>1928.049576833459</v>
       </c>
       <c r="R30" t="n">
         <v>2027.83456305884</v>
@@ -6575,7 +6575,7 @@
         <v>1786.589927706918</v>
       </c>
       <c r="U30" t="n">
-        <v>1589.315040123212</v>
+        <v>1589.315040123213</v>
       </c>
       <c r="V30" t="n">
         <v>1375.603513116246</v>
@@ -6584,10 +6584,10 @@
         <v>1162.370344852575</v>
       </c>
       <c r="X30" t="n">
-        <v>986.0443629914679</v>
+        <v>986.044362991468</v>
       </c>
       <c r="Y30" t="n">
-        <v>826.6424033552979</v>
+        <v>826.642403355298</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>371.1447083765503</v>
+        <v>779.698373949563</v>
       </c>
       <c r="C31" t="n">
-        <v>200.0513359382668</v>
+        <v>608.6050015112795</v>
       </c>
       <c r="D31" t="n">
-        <v>40.5566912611768</v>
+        <v>608.6050015112795</v>
       </c>
       <c r="E31" t="n">
-        <v>40.5566912611768</v>
+        <v>447.694186379599</v>
       </c>
       <c r="F31" t="n">
-        <v>40.5566912611768</v>
+        <v>283.0630604901903</v>
       </c>
       <c r="G31" t="n">
-        <v>40.5566912611768</v>
+        <v>116.7801726095708</v>
       </c>
       <c r="H31" t="n">
         <v>40.5566912611768</v>
@@ -6624,13 +6624,13 @@
         <v>121.6805072021685</v>
       </c>
       <c r="K31" t="n">
-        <v>180.1220365202897</v>
+        <v>386.4022301060039</v>
       </c>
       <c r="L31" t="n">
-        <v>580.9980326375838</v>
+        <v>787.2782262232981</v>
       </c>
       <c r="M31" t="n">
-        <v>743.0032873056346</v>
+        <v>880.2184121100915</v>
       </c>
       <c r="N31" t="n">
         <v>1168.950162743064</v>
@@ -6645,28 +6645,28 @@
         <v>2027.83456305884</v>
       </c>
       <c r="R31" t="n">
-        <v>1986.06430652259</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="S31" t="n">
-        <v>1816.533480426008</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="T31" t="n">
-        <v>1581.118618685469</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="U31" t="n">
-        <v>1298.373244133075</v>
+        <v>1745.089188506446</v>
       </c>
       <c r="V31" t="n">
-        <v>1024.487499072597</v>
+        <v>1471.203443445968</v>
       </c>
       <c r="W31" t="n">
-        <v>745.4178345814712</v>
+        <v>1192.133778954843</v>
       </c>
       <c r="X31" t="n">
-        <v>507.0739724411546</v>
+        <v>1192.133778954843</v>
       </c>
       <c r="Y31" t="n">
-        <v>371.1447083765503</v>
+        <v>967.3980803436074</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>448.2191749079711</v>
+        <v>1071.114100148804</v>
       </c>
       <c r="C32" t="n">
-        <v>448.2191749079711</v>
+        <v>750.4064287431074</v>
       </c>
       <c r="D32" t="n">
-        <v>43.75524500103158</v>
+        <v>750.4064287431074</v>
       </c>
       <c r="E32" t="n">
-        <v>43.75524500103158</v>
+        <v>750.4064287431074</v>
       </c>
       <c r="F32" t="n">
-        <v>43.75524500103158</v>
+        <v>329.3760166967949</v>
       </c>
       <c r="G32" t="n">
-        <v>43.75524500103158</v>
+        <v>329.3760166967949</v>
       </c>
       <c r="H32" t="n">
-        <v>43.75524500103158</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I32" t="n">
         <v>40.5566912611768</v>
       </c>
       <c r="J32" t="n">
-        <v>160.3020037911674</v>
+        <v>383.355423239411</v>
       </c>
       <c r="K32" t="n">
-        <v>340.9606740668363</v>
+        <v>564.01409351508</v>
       </c>
       <c r="L32" t="n">
-        <v>580.0289430286558</v>
+        <v>803.0823624768997</v>
       </c>
       <c r="M32" t="n">
         <v>1081.917997385719</v>
@@ -6730,22 +6730,22 @@
         <v>1941.703445671247</v>
       </c>
       <c r="T32" t="n">
-        <v>1941.703445671247</v>
+        <v>1728.938714348754</v>
       </c>
       <c r="U32" t="n">
-        <v>1684.815504523208</v>
+        <v>1472.050773200715</v>
       </c>
       <c r="V32" t="n">
-        <v>1334.977949859689</v>
+        <v>1472.050773200715</v>
       </c>
       <c r="W32" t="n">
-        <v>1334.977949859689</v>
+        <v>1472.050773200715</v>
       </c>
       <c r="X32" t="n">
-        <v>934.3345520286412</v>
+        <v>1472.050773200715</v>
       </c>
       <c r="Y32" t="n">
-        <v>533.3978789767312</v>
+        <v>1071.114100148804</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>686.3393707197113</v>
+        <v>686.3393707197114</v>
       </c>
       <c r="C33" t="n">
-        <v>552.3442994686569</v>
+        <v>552.3442994686571</v>
       </c>
       <c r="D33" t="n">
-        <v>435.4471416880493</v>
+        <v>435.4471416880494</v>
       </c>
       <c r="E33" t="n">
-        <v>314.9543256803773</v>
+        <v>314.9543256803775</v>
       </c>
       <c r="F33" t="n">
-        <v>205.9944458628819</v>
+        <v>205.994445862882</v>
       </c>
       <c r="G33" t="n">
-        <v>100.158367003969</v>
+        <v>100.1583670039693</v>
       </c>
       <c r="H33" t="n">
         <v>40.5566912611768</v>
@@ -6779,28 +6779,28 @@
         <v>40.5566912611768</v>
       </c>
       <c r="J33" t="n">
-        <v>96.56231902906741</v>
+        <v>271.1051808247884</v>
       </c>
       <c r="K33" t="n">
-        <v>223.937561343132</v>
+        <v>398.480423138853</v>
       </c>
       <c r="L33" t="n">
-        <v>413.9699228834543</v>
+        <v>588.5127846791753</v>
       </c>
       <c r="M33" t="n">
-        <v>915.8589772405172</v>
+        <v>818.1111189590658</v>
       </c>
       <c r="N33" t="n">
-        <v>1157.369597428508</v>
+        <v>1059.621739147057</v>
       </c>
       <c r="O33" t="n">
-        <v>1369.305614915575</v>
+        <v>1271.557756634124</v>
       </c>
       <c r="P33" t="n">
-        <v>1871.194669272638</v>
+        <v>1433.825203448322</v>
       </c>
       <c r="Q33" t="n">
-        <v>2016.01929331044</v>
+        <v>1928.049576833459</v>
       </c>
       <c r="R33" t="n">
         <v>2027.83456305884</v>
@@ -6812,7 +6812,7 @@
         <v>1786.589927706918</v>
       </c>
       <c r="U33" t="n">
-        <v>1589.315040123212</v>
+        <v>1589.315040123213</v>
       </c>
       <c r="V33" t="n">
         <v>1375.603513116246</v>
@@ -6821,10 +6821,10 @@
         <v>1162.370344852575</v>
       </c>
       <c r="X33" t="n">
-        <v>986.0443629914679</v>
+        <v>986.044362991468</v>
       </c>
       <c r="Y33" t="n">
-        <v>826.6424033552979</v>
+        <v>826.642403355298</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>282.3382738299193</v>
+        <v>136.4088239721248</v>
       </c>
       <c r="C34" t="n">
-        <v>111.2449013916358</v>
+        <v>136.4088239721248</v>
       </c>
       <c r="D34" t="n">
-        <v>111.2449013916358</v>
+        <v>136.4088239721248</v>
       </c>
       <c r="E34" t="n">
-        <v>40.5566912611768</v>
+        <v>136.4088239721248</v>
       </c>
       <c r="F34" t="n">
-        <v>40.5566912611768</v>
+        <v>136.4088239721248</v>
       </c>
       <c r="G34" t="n">
         <v>40.5566912611768</v>
@@ -6861,16 +6861,16 @@
         <v>121.6805072021685</v>
       </c>
       <c r="K34" t="n">
-        <v>180.1220365202897</v>
+        <v>386.4022301060039</v>
       </c>
       <c r="L34" t="n">
-        <v>580.9980326375838</v>
+        <v>787.2782262232981</v>
       </c>
       <c r="M34" t="n">
-        <v>1018.904568038663</v>
+        <v>1225.184761624377</v>
       </c>
       <c r="N34" t="n">
-        <v>1444.851443476092</v>
+        <v>1484.024922161805</v>
       </c>
       <c r="O34" t="n">
         <v>1562.541583420358</v>
@@ -6882,28 +6882,28 @@
         <v>2027.83456305884</v>
       </c>
       <c r="R34" t="n">
-        <v>1986.06430652259</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="S34" t="n">
-        <v>1816.533480426008</v>
+        <v>1858.303736962258</v>
       </c>
       <c r="T34" t="n">
-        <v>1581.118618685469</v>
+        <v>1622.888875221719</v>
       </c>
       <c r="U34" t="n">
-        <v>1298.373244133075</v>
+        <v>1340.143500669325</v>
       </c>
       <c r="V34" t="n">
-        <v>1024.487499072597</v>
+        <v>1066.257755608847</v>
       </c>
       <c r="W34" t="n">
-        <v>745.4178345814712</v>
+        <v>787.1880911177211</v>
       </c>
       <c r="X34" t="n">
-        <v>507.0739724411546</v>
+        <v>548.8442289774046</v>
       </c>
       <c r="Y34" t="n">
-        <v>282.3382738299193</v>
+        <v>324.1085303661692</v>
       </c>
     </row>
     <row r="35">
@@ -6913,55 +6913,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>156.1626996560755</v>
+        <v>748.7892817275538</v>
       </c>
       <c r="C35" t="n">
-        <v>156.1626996560755</v>
+        <v>748.7892817275538</v>
       </c>
       <c r="D35" t="n">
-        <v>156.1626996560755</v>
+        <v>748.7892817275538</v>
       </c>
       <c r="E35" t="n">
-        <v>35.74099050576837</v>
+        <v>748.7892817275538</v>
       </c>
       <c r="F35" t="n">
-        <v>35.74099050576837</v>
+        <v>327.7588696812413</v>
       </c>
       <c r="G35" t="n">
-        <v>35.74099050576837</v>
+        <v>327.7588696812413</v>
       </c>
       <c r="H35" t="n">
-        <v>35.74099050576837</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="I35" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J35" t="n">
-        <v>142.5703854689897</v>
+        <v>142.5703854689898</v>
       </c>
       <c r="K35" t="n">
-        <v>323.2290557446587</v>
+        <v>323.2290557446588</v>
       </c>
       <c r="L35" t="n">
-        <v>562.2973247064782</v>
+        <v>562.2973247064784</v>
       </c>
       <c r="M35" t="n">
-        <v>841.132959615297</v>
+        <v>841.1329596152973</v>
       </c>
       <c r="N35" t="n">
         <v>1126.349039004049</v>
       </c>
       <c r="O35" t="n">
-        <v>1390.269714189817</v>
+        <v>1390.269714189818</v>
       </c>
       <c r="P35" t="n">
         <v>1601.546999092373</v>
       </c>
       <c r="Q35" t="n">
-        <v>1740.697478824117</v>
+        <v>1740.697478824118</v>
       </c>
       <c r="R35" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S35" t="n">
         <v>1700.918407900826</v>
@@ -6973,16 +6973,16 @@
         <v>1700.918407900826</v>
       </c>
       <c r="V35" t="n">
-        <v>1351.080853237306</v>
+        <v>1351.080853237307</v>
       </c>
       <c r="W35" t="n">
-        <v>967.3205523724748</v>
+        <v>1351.080853237307</v>
       </c>
       <c r="X35" t="n">
-        <v>967.3205523724748</v>
+        <v>1149.725954779464</v>
       </c>
       <c r="Y35" t="n">
-        <v>566.3838793205649</v>
+        <v>748.7892817275538</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>512.9621144040152</v>
+        <v>532.1086706583163</v>
       </c>
       <c r="C36" t="n">
-        <v>378.9670431529609</v>
+        <v>398.113599407262</v>
       </c>
       <c r="D36" t="n">
-        <v>262.0698853723533</v>
+        <v>281.2164416266544</v>
       </c>
       <c r="E36" t="n">
-        <v>141.5770693646812</v>
+        <v>160.7236256189824</v>
       </c>
       <c r="F36" t="n">
-        <v>141.5770693646812</v>
+        <v>51.763745801487</v>
       </c>
       <c r="G36" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="H36" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I36" t="n">
-        <v>35.74099050576837</v>
+        <v>54.34778796170229</v>
       </c>
       <c r="J36" t="n">
-        <v>91.74661827365898</v>
+        <v>110.3534157295929</v>
       </c>
       <c r="K36" t="n">
-        <v>219.1218605877236</v>
+        <v>237.7286580436576</v>
       </c>
       <c r="L36" t="n">
-        <v>541.0014806835346</v>
+        <v>427.7610195839799</v>
       </c>
       <c r="M36" t="n">
-        <v>983.2962381924182</v>
+        <v>657.3593538638704</v>
       </c>
       <c r="N36" t="n">
-        <v>1224.806858380409</v>
+        <v>898.8699740518614</v>
       </c>
       <c r="O36" t="n">
-        <v>1436.742875867476</v>
+        <v>1156.715565172791</v>
       </c>
       <c r="P36" t="n">
-        <v>1599.010322681674</v>
+        <v>1599.010322681675</v>
       </c>
       <c r="Q36" t="n">
-        <v>1687.264539063037</v>
+        <v>1687.264539063038</v>
       </c>
       <c r="R36" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S36" t="n">
-        <v>1700.495187579393</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T36" t="n">
-        <v>1545.804889936497</v>
+        <v>1632.359227645523</v>
       </c>
       <c r="U36" t="n">
-        <v>1348.530002352791</v>
+        <v>1435.084340061818</v>
       </c>
       <c r="V36" t="n">
-        <v>1134.818475345825</v>
+        <v>1221.372813054851</v>
       </c>
       <c r="W36" t="n">
-        <v>921.5853070821535</v>
+        <v>1008.13964479118</v>
       </c>
       <c r="X36" t="n">
-        <v>745.2593252210463</v>
+        <v>831.813662930073</v>
       </c>
       <c r="Y36" t="n">
-        <v>653.2651470396019</v>
+        <v>672.411703293903</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>195.2356351828583</v>
+        <v>176.7464627587414</v>
       </c>
       <c r="C37" t="n">
-        <v>195.2356351828583</v>
+        <v>176.7464627587414</v>
       </c>
       <c r="D37" t="n">
-        <v>35.74099050576837</v>
+        <v>176.7464627587414</v>
       </c>
       <c r="E37" t="n">
-        <v>35.74099050576837</v>
+        <v>176.7464627587414</v>
       </c>
       <c r="F37" t="n">
-        <v>35.74099050576837</v>
+        <v>176.7464627587414</v>
       </c>
       <c r="G37" t="n">
-        <v>35.74099050576837</v>
+        <v>176.7464627587414</v>
       </c>
       <c r="H37" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I37" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J37" t="n">
-        <v>75.71464607487565</v>
+        <v>51.86344281542368</v>
       </c>
       <c r="K37" t="n">
-        <v>340.436368978711</v>
+        <v>110.3049721335449</v>
       </c>
       <c r="L37" t="n">
-        <v>741.3123650960051</v>
+        <v>511.1809682508391</v>
       </c>
       <c r="M37" t="n">
-        <v>834.2525509827985</v>
+        <v>763.1157330083317</v>
       </c>
       <c r="N37" t="n">
-        <v>928.1651249726425</v>
+        <v>1189.062608445761</v>
       </c>
       <c r="O37" t="n">
-        <v>1321.756545649936</v>
+        <v>1582.654029123055</v>
       </c>
       <c r="P37" t="n">
-        <v>1642.118498692661</v>
+        <v>1642.118498692662</v>
       </c>
       <c r="Q37" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="R37" t="n">
-        <v>1745.279268752168</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S37" t="n">
-        <v>1575.748442655586</v>
+        <v>1617.518699191837</v>
       </c>
       <c r="T37" t="n">
-        <v>1340.333580915047</v>
+        <v>1382.103837451298</v>
       </c>
       <c r="U37" t="n">
-        <v>1057.588206362653</v>
+        <v>1099.358462898904</v>
       </c>
       <c r="V37" t="n">
-        <v>783.7024613021752</v>
+        <v>825.472717838426</v>
       </c>
       <c r="W37" t="n">
-        <v>504.6327968110495</v>
+        <v>546.4030533473003</v>
       </c>
       <c r="X37" t="n">
-        <v>266.2889346707329</v>
+        <v>308.0591912069837</v>
       </c>
       <c r="Y37" t="n">
-        <v>195.2356351828583</v>
+        <v>308.0591912069837</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>327.7588696812413</v>
+        <v>728.0949422503243</v>
       </c>
       <c r="C38" t="n">
-        <v>327.7588696812413</v>
+        <v>728.0949422503243</v>
       </c>
       <c r="D38" t="n">
-        <v>327.7588696812413</v>
+        <v>728.0949422503243</v>
       </c>
       <c r="E38" t="n">
-        <v>327.7588696812413</v>
+        <v>459.9699562919356</v>
       </c>
       <c r="F38" t="n">
-        <v>327.7588696812413</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="G38" t="n">
-        <v>327.7588696812413</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="H38" t="n">
         <v>38.93954424562315</v>
       </c>
       <c r="I38" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J38" t="n">
-        <v>142.5703854689896</v>
+        <v>142.5703854689898</v>
       </c>
       <c r="K38" t="n">
-        <v>323.2290557446586</v>
+        <v>323.2290557446588</v>
       </c>
       <c r="L38" t="n">
-        <v>562.2973247064781</v>
+        <v>562.2973247064784</v>
       </c>
       <c r="M38" t="n">
-        <v>841.1329596152968</v>
+        <v>841.1329596152973</v>
       </c>
       <c r="N38" t="n">
         <v>1126.349039004049</v>
       </c>
       <c r="O38" t="n">
-        <v>1390.269714189817</v>
+        <v>1390.269714189818</v>
       </c>
       <c r="P38" t="n">
         <v>1601.546999092373</v>
       </c>
       <c r="Q38" t="n">
-        <v>1740.697478824117</v>
+        <v>1740.697478824118</v>
       </c>
       <c r="R38" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S38" t="n">
-        <v>1787.049525288418</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="T38" t="n">
-        <v>1574.284793965925</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="U38" t="n">
-        <v>1317.396852817886</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="V38" t="n">
-        <v>1138.916722397641</v>
+        <v>1138.316121914814</v>
       </c>
       <c r="W38" t="n">
-        <v>1138.916722397641</v>
+        <v>1138.316121914814</v>
       </c>
       <c r="X38" t="n">
-        <v>1138.916722397641</v>
+        <v>1138.316121914814</v>
       </c>
       <c r="Y38" t="n">
-        <v>737.9800493457308</v>
+        <v>1138.316121914814</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>547.5285987132485</v>
+        <v>516.0859153625977</v>
       </c>
       <c r="C39" t="n">
-        <v>547.5285987132485</v>
+        <v>382.0908441115434</v>
       </c>
       <c r="D39" t="n">
-        <v>430.6314409326409</v>
+        <v>265.1936863309359</v>
       </c>
       <c r="E39" t="n">
-        <v>310.1386249249689</v>
+        <v>144.7008703232638</v>
       </c>
       <c r="F39" t="n">
-        <v>201.1787451074734</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="G39" t="n">
-        <v>95.34266624856059</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="H39" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I39" t="n">
-        <v>35.74099050576837</v>
+        <v>54.34778796170229</v>
       </c>
       <c r="J39" t="n">
-        <v>91.74661827365898</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K39" t="n">
-        <v>219.1218605877236</v>
+        <v>481.3970620182909</v>
       </c>
       <c r="L39" t="n">
-        <v>409.1542221280458</v>
+        <v>671.4294235586131</v>
       </c>
       <c r="M39" t="n">
-        <v>638.7525564079364</v>
+        <v>901.0277578385036</v>
       </c>
       <c r="N39" t="n">
-        <v>880.2631765959272</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O39" t="n">
-        <v>1092.199194082994</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P39" t="n">
-        <v>1254.466640897192</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q39" t="n">
-        <v>1687.264539063037</v>
+        <v>1687.264539063038</v>
       </c>
       <c r="R39" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S39" t="n">
-        <v>1700.495187579393</v>
+        <v>1771.026769992701</v>
       </c>
       <c r="T39" t="n">
-        <v>1545.804889936497</v>
+        <v>1616.336472349805</v>
       </c>
       <c r="U39" t="n">
-        <v>1348.530002352791</v>
+        <v>1419.061584766099</v>
       </c>
       <c r="V39" t="n">
-        <v>1134.818475345825</v>
+        <v>1205.350057759133</v>
       </c>
       <c r="W39" t="n">
-        <v>921.5853070821535</v>
+        <v>992.1168894954615</v>
       </c>
       <c r="X39" t="n">
-        <v>745.2593252210463</v>
+        <v>815.7909076343543</v>
       </c>
       <c r="Y39" t="n">
-        <v>585.8573655848763</v>
+        <v>656.3889479981843</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>366.3290076211418</v>
+        <v>308.0591912069837</v>
       </c>
       <c r="C40" t="n">
-        <v>195.2356351828583</v>
+        <v>308.0591912069837</v>
       </c>
       <c r="D40" t="n">
-        <v>35.74099050576837</v>
+        <v>308.0591912069837</v>
       </c>
       <c r="E40" t="n">
-        <v>35.74099050576837</v>
+        <v>308.0591912069837</v>
       </c>
       <c r="F40" t="n">
-        <v>35.74099050576837</v>
+        <v>308.0591912069837</v>
       </c>
       <c r="G40" t="n">
-        <v>35.74099050576837</v>
+        <v>176.7464627587414</v>
       </c>
       <c r="H40" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I40" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J40" t="n">
-        <v>116.86480644676</v>
+        <v>116.8648064467601</v>
       </c>
       <c r="K40" t="n">
-        <v>175.3063357648813</v>
+        <v>381.5865293505955</v>
       </c>
       <c r="L40" t="n">
-        <v>576.1823318821754</v>
+        <v>782.4625254678897</v>
       </c>
       <c r="M40" t="n">
-        <v>1014.088867283254</v>
+        <v>875.4027113546831</v>
       </c>
       <c r="N40" t="n">
-        <v>1243.239884391383</v>
+        <v>1054.439085178481</v>
       </c>
       <c r="O40" t="n">
-        <v>1321.756545649936</v>
+        <v>1448.030505855774</v>
       </c>
       <c r="P40" t="n">
-        <v>1642.118498692661</v>
+        <v>1768.392458898499</v>
       </c>
       <c r="Q40" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="R40" t="n">
-        <v>1745.279268752168</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S40" t="n">
-        <v>1575.748442655586</v>
+        <v>1617.518699191837</v>
       </c>
       <c r="T40" t="n">
-        <v>1340.333580915047</v>
+        <v>1382.103837451298</v>
       </c>
       <c r="U40" t="n">
-        <v>1057.588206362653</v>
+        <v>1099.358462898904</v>
       </c>
       <c r="V40" t="n">
-        <v>783.7024613021752</v>
+        <v>825.472717838426</v>
       </c>
       <c r="W40" t="n">
-        <v>504.6327968110495</v>
+        <v>546.4030533473003</v>
       </c>
       <c r="X40" t="n">
-        <v>366.3290076211418</v>
+        <v>308.0591912069837</v>
       </c>
       <c r="Y40" t="n">
-        <v>366.3290076211418</v>
+        <v>308.0591912069837</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1002.352551371677</v>
+        <v>1077.932496913844</v>
       </c>
       <c r="C41" t="n">
-        <v>592.227960684947</v>
+        <v>856.652607690409</v>
       </c>
       <c r="D41" t="n">
-        <v>456.7714025520808</v>
+        <v>856.652607690409</v>
       </c>
       <c r="E41" t="n">
-        <v>456.7714025520808</v>
+        <v>442.3123922073057</v>
       </c>
       <c r="F41" t="n">
-        <v>35.74099050576837</v>
+        <v>442.3123922073057</v>
       </c>
       <c r="G41" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="H41" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I41" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J41" t="n">
-        <v>142.5703854689897</v>
+        <v>142.57038546899</v>
       </c>
       <c r="K41" t="n">
-        <v>323.2290557446587</v>
+        <v>323.2290557446593</v>
       </c>
       <c r="L41" t="n">
-        <v>562.2973247064782</v>
+        <v>562.297324706479</v>
       </c>
       <c r="M41" t="n">
-        <v>841.132959615297</v>
+        <v>841.1329596152976</v>
       </c>
       <c r="N41" t="n">
-        <v>1126.349039004049</v>
+        <v>1126.34903900405</v>
       </c>
       <c r="O41" t="n">
-        <v>1390.269714189817</v>
+        <v>1390.269714189819</v>
       </c>
       <c r="P41" t="n">
-        <v>1601.546999092373</v>
+        <v>1601.546999092374</v>
       </c>
       <c r="Q41" t="n">
-        <v>1740.697478824117</v>
+        <v>1740.697478824118</v>
       </c>
       <c r="R41" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S41" t="n">
-        <v>1787.049525288418</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="T41" t="n">
-        <v>1787.049525288418</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="U41" t="n">
-        <v>1787.049525288418</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="V41" t="n">
-        <v>1787.049525288418</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="W41" t="n">
-        <v>1403.289224423587</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="X41" t="n">
-        <v>1403.289224423587</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="Y41" t="n">
-        <v>1002.352551371677</v>
+        <v>1488.153676578333</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>681.5236699643028</v>
+        <v>532.1086706583163</v>
       </c>
       <c r="C42" t="n">
-        <v>547.5285987132485</v>
+        <v>398.113599407262</v>
       </c>
       <c r="D42" t="n">
-        <v>430.6314409326409</v>
+        <v>281.2164416266544</v>
       </c>
       <c r="E42" t="n">
-        <v>310.1386249249689</v>
+        <v>201.1787451074734</v>
       </c>
       <c r="F42" t="n">
         <v>201.1787451074734</v>
       </c>
       <c r="G42" t="n">
-        <v>95.34266624856059</v>
+        <v>95.3426662485606</v>
       </c>
       <c r="H42" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I42" t="n">
-        <v>54.34778796170226</v>
+        <v>54.34778796170229</v>
       </c>
       <c r="J42" t="n">
-        <v>110.3534157295929</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K42" t="n">
-        <v>399.3728628806252</v>
+        <v>481.3970620182909</v>
       </c>
       <c r="L42" t="n">
-        <v>841.6676203895087</v>
+        <v>671.4294235586131</v>
       </c>
       <c r="M42" t="n">
-        <v>1071.265954669399</v>
+        <v>901.0277578385036</v>
       </c>
       <c r="N42" t="n">
-        <v>1312.77657485739</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O42" t="n">
-        <v>1524.712592344457</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P42" t="n">
-        <v>1686.980039158655</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q42" t="n">
-        <v>1775.234255540018</v>
+        <v>1687.264539063038</v>
       </c>
       <c r="R42" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S42" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T42" t="n">
-        <v>1632.359227645522</v>
+        <v>1632.359227645523</v>
       </c>
       <c r="U42" t="n">
-        <v>1584.499339367804</v>
+        <v>1435.084340061818</v>
       </c>
       <c r="V42" t="n">
-        <v>1370.787812360838</v>
+        <v>1221.372813054851</v>
       </c>
       <c r="W42" t="n">
-        <v>1157.554644097167</v>
+        <v>1008.13964479118</v>
       </c>
       <c r="X42" t="n">
-        <v>981.2286622360594</v>
+        <v>831.813662930073</v>
       </c>
       <c r="Y42" t="n">
-        <v>821.8267025998895</v>
+        <v>672.411703293903</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>915.3165225494567</v>
+        <v>631.5446378282932</v>
       </c>
       <c r="C43" t="n">
-        <v>915.3165225494567</v>
+        <v>631.5446378282932</v>
       </c>
       <c r="D43" t="n">
-        <v>755.8218778723667</v>
+        <v>614.8164056193937</v>
       </c>
       <c r="E43" t="n">
-        <v>594.9110627406862</v>
+        <v>453.9055904877132</v>
       </c>
       <c r="F43" t="n">
-        <v>430.2799368512775</v>
+        <v>289.2744645983045</v>
       </c>
       <c r="G43" t="n">
-        <v>263.9970489706581</v>
+        <v>122.991576717685</v>
       </c>
       <c r="H43" t="n">
         <v>122.991576717685</v>
       </c>
       <c r="I43" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J43" t="n">
-        <v>51.86344281542365</v>
+        <v>51.86344281542368</v>
       </c>
       <c r="K43" t="n">
-        <v>110.3049721335449</v>
+        <v>316.5851657192591</v>
       </c>
       <c r="L43" t="n">
-        <v>511.180968250839</v>
+        <v>717.4611618365533</v>
       </c>
       <c r="M43" t="n">
-        <v>817.2930089539532</v>
+        <v>810.4013477233467</v>
       </c>
       <c r="N43" t="n">
-        <v>1243.239884391383</v>
+        <v>928.1651249726434</v>
       </c>
       <c r="O43" t="n">
-        <v>1321.756545649936</v>
+        <v>1321.756545649937</v>
       </c>
       <c r="P43" t="n">
-        <v>1642.118498692661</v>
+        <v>1642.118498692662</v>
       </c>
       <c r="Q43" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="R43" t="n">
-        <v>1745.279268752168</v>
+        <v>1745.279268752169</v>
       </c>
       <c r="S43" t="n">
-        <v>1745.279268752168</v>
+        <v>1575.748442655587</v>
       </c>
       <c r="T43" t="n">
-        <v>1745.279268752168</v>
+        <v>1340.333580915048</v>
       </c>
       <c r="U43" t="n">
-        <v>1606.821592045862</v>
+        <v>1057.588206362654</v>
       </c>
       <c r="V43" t="n">
-        <v>1606.821592045862</v>
+        <v>1057.588206362654</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.751927554737</v>
+        <v>1057.588206362654</v>
       </c>
       <c r="X43" t="n">
-        <v>1327.751927554737</v>
+        <v>819.2443442223375</v>
       </c>
       <c r="Y43" t="n">
-        <v>1103.016228943501</v>
+        <v>819.2443442223375</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>36.34758184906161</v>
+        <v>866.541357993473</v>
       </c>
       <c r="C44" t="n">
-        <v>35.74099050576837</v>
+        <v>866.541357993473</v>
       </c>
       <c r="D44" t="n">
-        <v>35.74099050576837</v>
+        <v>866.541357993473</v>
       </c>
       <c r="E44" t="n">
-        <v>35.74099050576837</v>
+        <v>866.541357993473</v>
       </c>
       <c r="F44" t="n">
-        <v>35.74099050576837</v>
+        <v>445.5109459471605</v>
       </c>
       <c r="G44" t="n">
-        <v>35.74099050576837</v>
+        <v>38.93954424562314</v>
       </c>
       <c r="H44" t="n">
-        <v>35.74099050576837</v>
+        <v>38.93954424562314</v>
       </c>
       <c r="I44" t="n">
         <v>35.74099050576837</v>
@@ -7654,16 +7654,16 @@
         <v>323.2290557446588</v>
       </c>
       <c r="L44" t="n">
-        <v>562.2973247064781</v>
+        <v>562.2973247064783</v>
       </c>
       <c r="M44" t="n">
-        <v>841.1329596152968</v>
+        <v>841.1329596152972</v>
       </c>
       <c r="N44" t="n">
         <v>1126.349039004049</v>
       </c>
       <c r="O44" t="n">
-        <v>1390.269714189817</v>
+        <v>1390.269714189818</v>
       </c>
       <c r="P44" t="n">
         <v>1601.546999092373</v>
@@ -7672,28 +7672,28 @@
         <v>1740.697478824117</v>
       </c>
       <c r="R44" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S44" t="n">
-        <v>1700.918407900825</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T44" t="n">
-        <v>1488.153676578332</v>
+        <v>1600.139213521824</v>
       </c>
       <c r="U44" t="n">
-        <v>1231.265735430292</v>
+        <v>1600.139213521824</v>
       </c>
       <c r="V44" t="n">
-        <v>1231.265735430292</v>
+        <v>1250.301658858304</v>
       </c>
       <c r="W44" t="n">
-        <v>847.505434565461</v>
+        <v>866.541357993473</v>
       </c>
       <c r="X44" t="n">
-        <v>847.505434565461</v>
+        <v>866.541357993473</v>
       </c>
       <c r="Y44" t="n">
-        <v>446.5687615135511</v>
+        <v>866.541357993473</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>564.6265121836952</v>
+        <v>621.9219942215105</v>
       </c>
       <c r="C45" t="n">
-        <v>430.6314409326409</v>
+        <v>487.9269229704562</v>
       </c>
       <c r="D45" t="n">
-        <v>430.6314409326409</v>
+        <v>371.0297651898487</v>
       </c>
       <c r="E45" t="n">
-        <v>310.1386249249689</v>
+        <v>250.5369491821766</v>
       </c>
       <c r="F45" t="n">
-        <v>201.1787451074734</v>
+        <v>141.5770693646812</v>
       </c>
       <c r="G45" t="n">
-        <v>95.34266624856059</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="H45" t="n">
         <v>35.74099050576837</v>
@@ -7727,52 +7727,52 @@
         <v>35.74099050576837</v>
       </c>
       <c r="J45" t="n">
-        <v>91.74661827365898</v>
+        <v>170.2194754076013</v>
       </c>
       <c r="K45" t="n">
-        <v>534.0413757825424</v>
+        <v>297.594717721666</v>
       </c>
       <c r="L45" t="n">
-        <v>724.0737373228646</v>
+        <v>487.6270792619882</v>
       </c>
       <c r="M45" t="n">
-        <v>953.6720716027552</v>
+        <v>717.2254135418788</v>
       </c>
       <c r="N45" t="n">
-        <v>1195.182691790746</v>
+        <v>958.7360337298697</v>
       </c>
       <c r="O45" t="n">
-        <v>1436.742875867476</v>
+        <v>1170.672051216937</v>
       </c>
       <c r="P45" t="n">
-        <v>1599.010322681674</v>
+        <v>1332.939498031135</v>
       </c>
       <c r="Q45" t="n">
-        <v>1687.264539063037</v>
+        <v>1775.234255540018</v>
       </c>
       <c r="R45" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S45" t="n">
-        <v>1700.495187579392</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.804889936496</v>
+        <v>1632.359227645523</v>
       </c>
       <c r="U45" t="n">
-        <v>1348.530002352791</v>
+        <v>1435.084340061817</v>
       </c>
       <c r="V45" t="n">
-        <v>1134.818475345824</v>
+        <v>1311.186136618046</v>
       </c>
       <c r="W45" t="n">
-        <v>921.5853070821532</v>
+        <v>1097.952968354374</v>
       </c>
       <c r="X45" t="n">
-        <v>864.3315044554519</v>
+        <v>921.6269864932672</v>
       </c>
       <c r="Y45" t="n">
-        <v>704.9295448192819</v>
+        <v>762.2250268570972</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>452.2549058145747</v>
+        <v>65.15461229828568</v>
       </c>
       <c r="C46" t="n">
-        <v>281.1615333762912</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="D46" t="n">
-        <v>281.1615333762912</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="E46" t="n">
-        <v>281.1615333762912</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="F46" t="n">
-        <v>116.5304074868825</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="G46" t="n">
-        <v>116.5304074868825</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="H46" t="n">
-        <v>116.5304074868825</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="I46" t="n">
         <v>35.74099050576837</v>
       </c>
       <c r="J46" t="n">
-        <v>75.71464607487542</v>
+        <v>51.86344281542367</v>
       </c>
       <c r="K46" t="n">
-        <v>340.4363689787108</v>
+        <v>110.3049721335449</v>
       </c>
       <c r="L46" t="n">
-        <v>741.3123650960049</v>
+        <v>451.4831578130892</v>
       </c>
       <c r="M46" t="n">
-        <v>834.2525509827983</v>
+        <v>889.3896932141681</v>
       </c>
       <c r="N46" t="n">
-        <v>928.1651249726423</v>
+        <v>1315.336568651598</v>
       </c>
       <c r="O46" t="n">
-        <v>1321.756545649936</v>
+        <v>1708.927989328892</v>
       </c>
       <c r="P46" t="n">
-        <v>1642.118498692661</v>
+        <v>1768.392458898498</v>
       </c>
       <c r="Q46" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="R46" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S46" t="n">
-        <v>1617.518699191836</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T46" t="n">
-        <v>1382.103837451297</v>
+        <v>1551.634663547879</v>
       </c>
       <c r="U46" t="n">
-        <v>1382.103837451297</v>
+        <v>1268.889288995486</v>
       </c>
       <c r="V46" t="n">
-        <v>1382.103837451297</v>
+        <v>995.0035439350077</v>
       </c>
       <c r="W46" t="n">
-        <v>1103.034172960171</v>
+        <v>715.933879443882</v>
       </c>
       <c r="X46" t="n">
-        <v>864.6903108198544</v>
+        <v>477.5900173035654</v>
       </c>
       <c r="Y46" t="n">
-        <v>639.9546122086191</v>
+        <v>252.8543186923301</v>
       </c>
     </row>
   </sheetData>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>101.8942200099487</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>101.8942200099488</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8847,25 +8847,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M13" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>276.6915141887443</v>
       </c>
       <c r="P13" t="n">
-        <v>239.1938448731951</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q13" t="n">
         <v>127.5494547533709</v>
@@ -9005,7 +9005,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,22 +9014,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>185.4018795795084</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>232.6855959816328</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>83.09947510496499</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,25 +9087,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K16" t="n">
-        <v>118.366922126993</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M16" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N16" t="n">
-        <v>335.3881832803894</v>
+        <v>319.3229224358852</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>182.07171948778</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>254.810500978345</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>83.09947510496499</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,22 +9321,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L19" t="n">
-        <v>103.2104880375581</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M19" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>335.3881832803894</v>
+        <v>85.98363619591258</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P19" t="n">
         <v>263.5328115890082</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>115.338325012794</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9494,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>232.6855959816329</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>83.09947510496522</v>
       </c>
       <c r="R21" t="n">
         <v>88.85829947169823</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>49.59268221745197</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L22" t="n">
-        <v>214.2183905379846</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N22" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O22" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9643,10 +9643,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>13.04638138057439</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>225.3064842911557</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>238.3528656717301</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9722,25 +9722,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>315.0067604209502</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>275.0411313910832</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>85.18719432582117</v>
       </c>
       <c r="O24" t="n">
-        <v>292.8818554242381</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>343.0521288311768</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>39.30110188243969</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,13 +9795,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L25" t="n">
-        <v>104.1203981144765</v>
+        <v>93.63143473676686</v>
       </c>
       <c r="M25" t="n">
         <v>348.4508580952379</v>
@@ -9813,7 +9813,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P25" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>127.5494547533709</v>
@@ -9892,13 +9892,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>238.3528656717306</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>110.0744140796682</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,19 +9950,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.970713529054045</v>
+        <v>0.9707135290540378</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>176.3059210057787</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>315.0067604209502</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>17.17619688572807</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>343.0521288311768</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>69.76269573864376</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L28" t="n">
         <v>317.1506174091142</v>
@@ -10053,7 +10053,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q28" t="n">
-        <v>127.5494547533709</v>
+        <v>54.60626164920878</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>110.0744140796684</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>238.3528656717306</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>19.76545843403778</v>
+        <v>0.9707135290540378</v>
       </c>
       <c r="J30" t="n">
-        <v>246.129700984478</v>
+        <v>176.3059210057787</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10202,16 +10202,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>263.008519362699</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>58.44382141399555</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>88.85829947169823</v>
@@ -10272,16 +10272,16 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L31" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M31" t="n">
-        <v>69.7626957386438</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>335.3881832803894</v>
+        <v>196.7870471142712</v>
       </c>
       <c r="O31" t="n">
         <v>318.2573327462026</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>13.0463813805749</v>
+        <v>238.3528656717301</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>225.3064842911558</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.970713529054045</v>
+        <v>0.9707135290540378</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>176.3059210057787</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>275.0411313910832</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>343.0521288311768</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>57.14182591559469</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L34" t="n">
         <v>317.1506174091142</v>
@@ -10518,10 +10518,10 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N34" t="n">
-        <v>335.3881832803894</v>
+        <v>166.593521765236</v>
       </c>
       <c r="O34" t="n">
-        <v>39.5691703896085</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>263.5328115890082</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.970713529054045</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10670,19 +10670,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>133.1790490459483</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>214.8448719484778</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>46.37330670087127</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>282.8558693885716</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10743,25 +10743,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.09212450449697</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>160.600584717878</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O37" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P37" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>127.5494547533709</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.970713529054045</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>348.0239209944262</v>
+        <v>83.09947510496499</v>
       </c>
       <c r="R39" t="n">
         <v>88.85829947169823</v>
@@ -10983,25 +10983,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L40" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>136.6044879982673</v>
+        <v>85.98363619591258</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q40" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>163.2769745827956</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>254.8105009783447</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>83.09947510496499</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,19 +11220,19 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L43" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M43" t="n">
-        <v>215.3251058750716</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>335.3881832803894</v>
+        <v>24.09212450449768</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
         <v>263.5328115890082</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.970713529054045</v>
+        <v>0.9707135290540378</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>79.26551225650735</v>
       </c>
       <c r="K45" t="n">
-        <v>318.1005203988069</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>29.92340059561886</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>357.6167082096171</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>24.09212450449674</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>317.1506174091142</v>
+        <v>256.8497987851244</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O46" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>84.61040211119632</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>192.0533403346746</v>
       </c>
       <c r="G11" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.319061736559</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>58.87579845669623</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23393,7 +23393,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>35.70398235026704</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,19 +23469,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>86.50817912401553</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>229.7945318729468</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,16 +23503,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>150.7842263952773</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I14" t="n">
         <v>3.166568202456219</v>
@@ -23548,16 +23548,16 @@
         <v>85.26980621371686</v>
       </c>
       <c r="T14" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>254.319061736559</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>52.1432342648846</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23588,10 +23588,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>94.70964133563126</v>
+        <v>16.79604461968948</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="16">
@@ -23658,7 +23658,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
@@ -23667,7 +23667,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>164.6200590018132</v>
+        <v>32.18920365296367</v>
       </c>
       <c r="H16" t="n">
         <v>139.5954175304433</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.69780968447296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>96.83696482874501</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>102.2359453657215</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>402.5056876845219</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I17" t="n">
         <v>3.166568202456219</v>
@@ -23785,13 +23785,13 @@
         <v>85.26980621371686</v>
       </c>
       <c r="T17" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>254.319061736559</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -23816,16 +23816,16 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>55.3160968119022</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>88.91519032756227</v>
       </c>
       <c r="H18" t="n">
         <v>59.00565898536429</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>85.6887943319354</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>20.0057381062098</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>153.5475838821707</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>139.5954175304433</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23971,25 +23971,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>49.73614037605512</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>80.73175011052251</v>
       </c>
       <c r="G20" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24050,7 +24050,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>125.7393626255413</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24059,13 +24059,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>88.91519032756206</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>85.6887943319354</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>180.0685862319109</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -24138,16 +24138,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>139.5954175304433</v>
       </c>
       <c r="I22" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>130.9158533941315</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>157.4432376437288</v>
       </c>
       <c r="G23" t="n">
-        <v>137.8785680729553</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H23" t="n">
         <v>285.9311321812619</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,13 +24259,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -24274,7 +24274,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>44.85511382275948</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>116.8574281340704</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24451,19 +24451,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>30.93704928887098</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>285.9311321812619</v>
       </c>
       <c r="I26" t="n">
-        <v>3.166568202456233</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>85.26980621371689</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>25.40767056099565</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>74.48882733006209</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>37.78065601235517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>103.3631261527432</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
@@ -24697,10 +24697,10 @@
         <v>402.5056876845219</v>
       </c>
       <c r="H29" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>3.166568202456233</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,13 +24733,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.319061736559</v>
+        <v>101.8878801830859</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>139.5954175304433</v>
+        <v>64.13417099553324</v>
       </c>
       <c r="I31" t="n">
         <v>86.37808034979749</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>87.91837020116469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>321.792050839772</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>88.52275008822249</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>402.5056876845219</v>
       </c>
       <c r="H32" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,19 +24970,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>89.32037895120935</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>164.6200590018132</v>
+        <v>69.72644761797466</v>
       </c>
       <c r="H34" t="n">
         <v>139.5954175304433</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
@@ -25162,19 +25162,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>290.9793212694682</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>402.5056876845219</v>
       </c>
       <c r="H35" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>3.166568202456233</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25216,10 +25216,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>197.2956143794721</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25244,10 +25244,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>88.91519032756227</v>
       </c>
       <c r="H36" t="n">
         <v>59.00565898536429</v>
@@ -25283,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>85.6887943319354</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>66.73370364017826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>55.8231081663441</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
@@ -25329,7 +25329,7 @@
         <v>164.6200590018132</v>
       </c>
       <c r="H37" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>86.37808034979749</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>152.1455751321271</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25399,16 +25399,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>144.7530772294675</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>402.5056876845219</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>85.26980621371689</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V38" t="n">
-        <v>169.6438500008414</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
@@ -25459,7 +25459,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25469,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>100.9545231063192</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25484,10 +25484,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>104.7777180703237</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>69.82626658917383</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -25563,10 +25563,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>164.6200590018132</v>
+        <v>34.62045783805337</v>
       </c>
       <c r="H40" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>86.37808034979749</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>99.03967222090486</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>186.9562544486623</v>
       </c>
       <c r="D41" t="n">
-        <v>266.3172980563326</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>285.9311321812619</v>
       </c>
       <c r="I41" t="n">
-        <v>3.166568202456233</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>85.26980621371689</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>254.319061736559</v>
@@ -25690,13 +25690,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25715,10 +25715,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>40.0505682936061</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -25763,7 +25763,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>147.9208493129278</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>141.3387483435086</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>142.8448208676269</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>405.4228193500022</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -25876,16 +25876,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>285.9311321812619</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166568202456233</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>25.59587536033945</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -25949,7 +25949,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25961,7 +25961,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>85.6887943319354</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26003,13 +26003,13 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>88.91519032756293</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>117.8814574420618</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>140.2629531393085</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
@@ -26034,7 +26034,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>164.6200590018132</v>
@@ -26043,7 +26043,7 @@
         <v>139.5954175304433</v>
       </c>
       <c r="I46" t="n">
-        <v>6.396557538494505</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.35255397088749</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>354524.1314615278</v>
+        <v>354524.1314615279</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>401750.2098707972</v>
+        <v>401750.2098707971</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>354524.1314615276</v>
+        <v>354524.1314615277</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>354524.1314615276</v>
+        <v>354524.1314615278</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>354524.1314615275</v>
+        <v>354524.1314615278</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>354524.1314615276</v>
+        <v>354524.1314615277</v>
       </c>
     </row>
   </sheetData>
@@ -26316,43 +26316,43 @@
         <v>550808.2431963632</v>
       </c>
       <c r="C2" t="n">
-        <v>550808.2431963633</v>
+        <v>550808.2431963632</v>
       </c>
       <c r="D2" t="n">
         <v>550808.2431963632</v>
       </c>
       <c r="E2" t="n">
+        <v>312945.2432775189</v>
+      </c>
+      <c r="F2" t="n">
         <v>312945.243277519</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>312945.2432775188</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>312945.2432775188</v>
+      </c>
+      <c r="I2" t="n">
+        <v>341936.2000538463</v>
+      </c>
+      <c r="J2" t="n">
+        <v>341936.2000538462</v>
+      </c>
+      <c r="K2" t="n">
+        <v>341936.2000538463</v>
+      </c>
+      <c r="L2" t="n">
+        <v>341936.2000538462</v>
+      </c>
+      <c r="M2" t="n">
         <v>312945.2432775189</v>
       </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
+        <v>312945.243277519</v>
+      </c>
+      <c r="O2" t="n">
         <v>312945.2432775189</v>
-      </c>
-      <c r="I2" t="n">
-        <v>341936.2000538462</v>
-      </c>
-      <c r="J2" t="n">
-        <v>341936.2000538463</v>
-      </c>
-      <c r="K2" t="n">
-        <v>341936.2000538462</v>
-      </c>
-      <c r="L2" t="n">
-        <v>341936.2000538463</v>
-      </c>
-      <c r="M2" t="n">
-        <v>312945.2432775187</v>
-      </c>
-      <c r="N2" t="n">
-        <v>312945.2432775188</v>
-      </c>
-      <c r="O2" t="n">
-        <v>312945.2432775187</v>
       </c>
       <c r="P2" t="n">
         <v>312945.2432775187</v>
@@ -26435,31 +26435,31 @@
         <v>23557.75513767836</v>
       </c>
       <c r="H4" t="n">
-        <v>23557.75513767837</v>
+        <v>23557.75513767836</v>
       </c>
       <c r="I4" t="n">
         <v>40139.72564959494</v>
       </c>
       <c r="J4" t="n">
-        <v>40139.72564959496</v>
+        <v>40139.72564959493</v>
       </c>
       <c r="K4" t="n">
-        <v>40139.72564959496</v>
+        <v>40139.72564959493</v>
       </c>
       <c r="L4" t="n">
-        <v>40139.72564959496</v>
+        <v>40139.72564959493</v>
       </c>
       <c r="M4" t="n">
-        <v>23557.75513767833</v>
+        <v>23557.75513767835</v>
       </c>
       <c r="N4" t="n">
+        <v>23557.75513767836</v>
+      </c>
+      <c r="O4" t="n">
+        <v>23557.75513767836</v>
+      </c>
+      <c r="P4" t="n">
         <v>23557.75513767834</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23557.75513767833</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23557.75513767833</v>
       </c>
     </row>
     <row r="5">
@@ -26502,13 +26502,13 @@
         <v>42402.35708297614</v>
       </c>
       <c r="M5" t="n">
-        <v>38742.42450886573</v>
+        <v>38742.42450886575</v>
       </c>
       <c r="N5" t="n">
-        <v>38742.42450886573</v>
+        <v>38742.42450886575</v>
       </c>
       <c r="O5" t="n">
-        <v>38742.42450886573</v>
+        <v>38742.42450886575</v>
       </c>
       <c r="P5" t="n">
         <v>38742.42450886573</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>156607.8846393388</v>
+        <v>156599.0849537094</v>
       </c>
       <c r="C6" t="n">
-        <v>156607.8846393389</v>
+        <v>156599.0849537094</v>
       </c>
       <c r="D6" t="n">
-        <v>156607.8846393388</v>
+        <v>156599.0849537094</v>
       </c>
       <c r="E6" t="n">
-        <v>-309483.2923320693</v>
+        <v>-310191.6890762837</v>
       </c>
       <c r="F6" t="n">
-        <v>250645.0636309747</v>
+        <v>249936.6668867606</v>
       </c>
       <c r="G6" t="n">
-        <v>250645.0636309748</v>
+        <v>249936.6668867605</v>
       </c>
       <c r="H6" t="n">
-        <v>250645.0636309748</v>
+        <v>249936.6668867605</v>
       </c>
       <c r="I6" t="n">
-        <v>243386.6678140381</v>
+        <v>242763.5385897544</v>
       </c>
       <c r="J6" t="n">
-        <v>259394.1173212752</v>
+        <v>258770.9880969913</v>
       </c>
       <c r="K6" t="n">
-        <v>259394.1173212751</v>
+        <v>258770.9880969914</v>
       </c>
       <c r="L6" t="n">
-        <v>259394.1173212753</v>
+        <v>258770.9880969913</v>
       </c>
       <c r="M6" t="n">
-        <v>154311.239794116</v>
+        <v>153602.8430499019</v>
       </c>
       <c r="N6" t="n">
-        <v>250645.0636309747</v>
+        <v>249936.6668867606</v>
       </c>
       <c r="O6" t="n">
-        <v>250645.0636309747</v>
+        <v>249936.6668867606</v>
       </c>
       <c r="P6" t="n">
-        <v>250645.0636309746</v>
+        <v>249936.6668867604</v>
       </c>
     </row>
   </sheetData>
@@ -26761,25 +26761,25 @@
         <v>531.1592534165951</v>
       </c>
       <c r="J3" t="n">
-        <v>531.159253416595</v>
+        <v>531.1592534165951</v>
       </c>
       <c r="K3" t="n">
-        <v>531.159253416595</v>
+        <v>531.1592534165951</v>
       </c>
       <c r="L3" t="n">
-        <v>531.159253416595</v>
+        <v>531.1592534165951</v>
       </c>
       <c r="M3" t="n">
-        <v>531.159253416595</v>
+        <v>531.1592534165951</v>
       </c>
       <c r="N3" t="n">
-        <v>531.159253416595</v>
+        <v>531.1592534165951</v>
       </c>
       <c r="O3" t="n">
-        <v>531.159253416595</v>
+        <v>531.1592534165951</v>
       </c>
       <c r="P3" t="n">
-        <v>531.159253416595</v>
+        <v>531.1592534165951</v>
       </c>
     </row>
     <row r="4">
@@ -26804,7 +26804,7 @@
         <v>446.7623813221048</v>
       </c>
       <c r="G4" t="n">
-        <v>446.7623813221049</v>
+        <v>446.7623813221048</v>
       </c>
       <c r="H4" t="n">
         <v>446.7623813221049</v>
@@ -26822,16 +26822,16 @@
         <v>506.95864076471</v>
       </c>
       <c r="M4" t="n">
-        <v>446.7623813221046</v>
+        <v>446.7623813221048</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7623813221046</v>
+        <v>446.7623813221048</v>
       </c>
       <c r="O4" t="n">
-        <v>446.7623813221045</v>
+        <v>446.7623813221048</v>
       </c>
       <c r="P4" t="n">
-        <v>446.7623813221045</v>
+        <v>446.7623813221047</v>
       </c>
     </row>
   </sheetData>
@@ -32943,10 +32943,10 @@
         <v>21.86828021729729</v>
       </c>
       <c r="I26" t="n">
-        <v>82.32167685364134</v>
+        <v>82.32167685364135</v>
       </c>
       <c r="J26" t="n">
-        <v>181.2320710941376</v>
+        <v>181.2320710941377</v>
       </c>
       <c r="K26" t="n">
         <v>271.6198950021757</v>
@@ -32955,31 +32955,31 @@
         <v>336.9684980242787</v>
       </c>
       <c r="M26" t="n">
-        <v>374.9423809305997</v>
+        <v>374.9423809305998</v>
       </c>
       <c r="N26" t="n">
-        <v>381.0093406442476</v>
+        <v>381.0093406442477</v>
       </c>
       <c r="O26" t="n">
-        <v>359.7763162174686</v>
+        <v>359.7763162174687</v>
       </c>
       <c r="P26" t="n">
-        <v>307.0607621723543</v>
+        <v>307.0607621723544</v>
       </c>
       <c r="Q26" t="n">
-        <v>230.5898445322264</v>
+        <v>230.5898445322265</v>
       </c>
       <c r="R26" t="n">
         <v>134.1323917685636</v>
       </c>
       <c r="S26" t="n">
-        <v>48.65845824012326</v>
+        <v>48.65845824012327</v>
       </c>
       <c r="T26" t="n">
-        <v>9.347335203341283</v>
+        <v>9.347335203341284</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1708250865259399</v>
+        <v>0.17082508652594</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,7 +33019,7 @@
         <v>1.142493488480978</v>
       </c>
       <c r="H27" t="n">
-        <v>11.03408184927681</v>
+        <v>11.03408184927682</v>
       </c>
       <c r="I27" t="n">
         <v>39.33585037094596</v>
@@ -33028,37 +33028,37 @@
         <v>107.9405799796875</v>
       </c>
       <c r="K27" t="n">
-        <v>184.487643707913</v>
+        <v>184.4876437079131</v>
       </c>
       <c r="L27" t="n">
-        <v>248.0664041546088</v>
+        <v>248.0664041546089</v>
       </c>
       <c r="M27" t="n">
-        <v>289.4817931120442</v>
+        <v>289.4817931120443</v>
       </c>
       <c r="N27" t="n">
-        <v>297.143514795761</v>
+        <v>297.1435147957611</v>
       </c>
       <c r="O27" t="n">
-        <v>271.8282643404719</v>
+        <v>271.828264340472</v>
       </c>
       <c r="P27" t="n">
-        <v>218.1661469363369</v>
+        <v>218.166146936337</v>
       </c>
       <c r="Q27" t="n">
         <v>145.8382916173263</v>
       </c>
       <c r="R27" t="n">
-        <v>70.93481501288039</v>
+        <v>70.93481501288041</v>
       </c>
       <c r="S27" t="n">
-        <v>21.22131545489885</v>
+        <v>21.22131545489886</v>
       </c>
       <c r="T27" t="n">
-        <v>4.605050508394817</v>
+        <v>4.605050508394818</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07516404529480121</v>
+        <v>0.07516404529480122</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9578281618987777</v>
+        <v>0.957828161898778</v>
       </c>
       <c r="H28" t="n">
-        <v>8.515963112154594</v>
+        <v>8.515963112154596</v>
       </c>
       <c r="I28" t="n">
         <v>28.80450508691962</v>
       </c>
       <c r="J28" t="n">
-        <v>67.71845104624359</v>
+        <v>67.7184510462436</v>
       </c>
       <c r="K28" t="n">
         <v>111.2822173551489</v>
@@ -33125,19 +33125,19 @@
         <v>115.8449624172849</v>
       </c>
       <c r="Q28" t="n">
-        <v>80.20504726590585</v>
+        <v>80.20504726590586</v>
       </c>
       <c r="R28" t="n">
-        <v>43.06743717046685</v>
+        <v>43.06743717046686</v>
       </c>
       <c r="S28" t="n">
         <v>16.69233260327233</v>
       </c>
       <c r="T28" t="n">
-        <v>4.09253850993114</v>
+        <v>4.092538509931141</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05224517246720612</v>
+        <v>0.05224517246720613</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,10 +33180,10 @@
         <v>21.86828021729729</v>
       </c>
       <c r="I29" t="n">
-        <v>82.32167685364134</v>
+        <v>82.32167685364135</v>
       </c>
       <c r="J29" t="n">
-        <v>181.2320710941376</v>
+        <v>181.2320710941377</v>
       </c>
       <c r="K29" t="n">
         <v>271.6198950021757</v>
@@ -33192,31 +33192,31 @@
         <v>336.9684980242787</v>
       </c>
       <c r="M29" t="n">
-        <v>374.9423809305997</v>
+        <v>374.9423809305998</v>
       </c>
       <c r="N29" t="n">
-        <v>381.0093406442476</v>
+        <v>381.0093406442477</v>
       </c>
       <c r="O29" t="n">
-        <v>359.7763162174686</v>
+        <v>359.7763162174687</v>
       </c>
       <c r="P29" t="n">
-        <v>307.0607621723543</v>
+        <v>307.0607621723544</v>
       </c>
       <c r="Q29" t="n">
-        <v>230.5898445322264</v>
+        <v>230.5898445322265</v>
       </c>
       <c r="R29" t="n">
         <v>134.1323917685636</v>
       </c>
       <c r="S29" t="n">
-        <v>48.65845824012326</v>
+        <v>48.65845824012327</v>
       </c>
       <c r="T29" t="n">
-        <v>9.347335203341283</v>
+        <v>9.347335203341284</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1708250865259399</v>
+        <v>0.17082508652594</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,7 +33256,7 @@
         <v>1.142493488480978</v>
       </c>
       <c r="H30" t="n">
-        <v>11.03408184927681</v>
+        <v>11.03408184927682</v>
       </c>
       <c r="I30" t="n">
         <v>39.33585037094596</v>
@@ -33265,37 +33265,37 @@
         <v>107.9405799796875</v>
       </c>
       <c r="K30" t="n">
-        <v>184.487643707913</v>
+        <v>184.4876437079131</v>
       </c>
       <c r="L30" t="n">
-        <v>248.0664041546088</v>
+        <v>248.0664041546089</v>
       </c>
       <c r="M30" t="n">
-        <v>289.4817931120442</v>
+        <v>289.4817931120443</v>
       </c>
       <c r="N30" t="n">
-        <v>297.143514795761</v>
+        <v>297.1435147957611</v>
       </c>
       <c r="O30" t="n">
-        <v>271.8282643404719</v>
+        <v>271.828264340472</v>
       </c>
       <c r="P30" t="n">
-        <v>218.1661469363369</v>
+        <v>218.166146936337</v>
       </c>
       <c r="Q30" t="n">
         <v>145.8382916173263</v>
       </c>
       <c r="R30" t="n">
-        <v>70.93481501288039</v>
+        <v>70.93481501288041</v>
       </c>
       <c r="S30" t="n">
-        <v>21.22131545489885</v>
+        <v>21.22131545489886</v>
       </c>
       <c r="T30" t="n">
-        <v>4.605050508394817</v>
+        <v>4.605050508394818</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07516404529480121</v>
+        <v>0.07516404529480122</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9578281618987777</v>
+        <v>0.957828161898778</v>
       </c>
       <c r="H31" t="n">
-        <v>8.515963112154594</v>
+        <v>8.515963112154596</v>
       </c>
       <c r="I31" t="n">
         <v>28.80450508691962</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71845104624359</v>
+        <v>67.7184510462436</v>
       </c>
       <c r="K31" t="n">
         <v>111.2822173551489</v>
@@ -33362,19 +33362,19 @@
         <v>115.8449624172849</v>
       </c>
       <c r="Q31" t="n">
-        <v>80.20504726590585</v>
+        <v>80.20504726590586</v>
       </c>
       <c r="R31" t="n">
-        <v>43.06743717046685</v>
+        <v>43.06743717046686</v>
       </c>
       <c r="S31" t="n">
         <v>16.69233260327233</v>
       </c>
       <c r="T31" t="n">
-        <v>4.09253850993114</v>
+        <v>4.092538509931141</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05224517246720612</v>
+        <v>0.05224517246720613</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,10 +33417,10 @@
         <v>21.86828021729729</v>
       </c>
       <c r="I32" t="n">
-        <v>82.32167685364134</v>
+        <v>82.32167685364135</v>
       </c>
       <c r="J32" t="n">
-        <v>181.2320710941376</v>
+        <v>181.2320710941377</v>
       </c>
       <c r="K32" t="n">
         <v>271.6198950021757</v>
@@ -33429,31 +33429,31 @@
         <v>336.9684980242787</v>
       </c>
       <c r="M32" t="n">
-        <v>374.9423809305997</v>
+        <v>374.9423809305998</v>
       </c>
       <c r="N32" t="n">
-        <v>381.0093406442476</v>
+        <v>381.0093406442477</v>
       </c>
       <c r="O32" t="n">
-        <v>359.7763162174686</v>
+        <v>359.7763162174687</v>
       </c>
       <c r="P32" t="n">
-        <v>307.0607621723543</v>
+        <v>307.0607621723544</v>
       </c>
       <c r="Q32" t="n">
-        <v>230.5898445322264</v>
+        <v>230.5898445322265</v>
       </c>
       <c r="R32" t="n">
         <v>134.1323917685636</v>
       </c>
       <c r="S32" t="n">
-        <v>48.65845824012326</v>
+        <v>48.65845824012327</v>
       </c>
       <c r="T32" t="n">
-        <v>9.347335203341283</v>
+        <v>9.347335203341284</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1708250865259399</v>
+        <v>0.17082508652594</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,7 +33493,7 @@
         <v>1.142493488480978</v>
       </c>
       <c r="H33" t="n">
-        <v>11.03408184927681</v>
+        <v>11.03408184927682</v>
       </c>
       <c r="I33" t="n">
         <v>39.33585037094596</v>
@@ -33502,37 +33502,37 @@
         <v>107.9405799796875</v>
       </c>
       <c r="K33" t="n">
-        <v>184.487643707913</v>
+        <v>184.4876437079131</v>
       </c>
       <c r="L33" t="n">
-        <v>248.0664041546088</v>
+        <v>248.0664041546089</v>
       </c>
       <c r="M33" t="n">
-        <v>289.4817931120442</v>
+        <v>289.4817931120443</v>
       </c>
       <c r="N33" t="n">
-        <v>297.143514795761</v>
+        <v>297.1435147957611</v>
       </c>
       <c r="O33" t="n">
-        <v>271.8282643404719</v>
+        <v>271.828264340472</v>
       </c>
       <c r="P33" t="n">
-        <v>218.1661469363369</v>
+        <v>218.166146936337</v>
       </c>
       <c r="Q33" t="n">
         <v>145.8382916173263</v>
       </c>
       <c r="R33" t="n">
-        <v>70.93481501288039</v>
+        <v>70.93481501288041</v>
       </c>
       <c r="S33" t="n">
-        <v>21.22131545489885</v>
+        <v>21.22131545489886</v>
       </c>
       <c r="T33" t="n">
-        <v>4.605050508394817</v>
+        <v>4.605050508394818</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07516404529480121</v>
+        <v>0.07516404529480122</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9578281618987777</v>
+        <v>0.957828161898778</v>
       </c>
       <c r="H34" t="n">
-        <v>8.515963112154594</v>
+        <v>8.515963112154596</v>
       </c>
       <c r="I34" t="n">
         <v>28.80450508691962</v>
       </c>
       <c r="J34" t="n">
-        <v>67.71845104624359</v>
+        <v>67.7184510462436</v>
       </c>
       <c r="K34" t="n">
         <v>111.2822173551489</v>
@@ -33599,19 +33599,19 @@
         <v>115.8449624172849</v>
       </c>
       <c r="Q34" t="n">
-        <v>80.20504726590585</v>
+        <v>80.20504726590586</v>
       </c>
       <c r="R34" t="n">
-        <v>43.06743717046685</v>
+        <v>43.06743717046686</v>
       </c>
       <c r="S34" t="n">
         <v>16.69233260327233</v>
       </c>
       <c r="T34" t="n">
-        <v>4.09253850993114</v>
+        <v>4.092538509931141</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05224517246720612</v>
+        <v>0.05224517246720613</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,10 +33654,10 @@
         <v>21.86828021729729</v>
       </c>
       <c r="I35" t="n">
-        <v>82.32167685364134</v>
+        <v>82.32167685364135</v>
       </c>
       <c r="J35" t="n">
-        <v>181.2320710941376</v>
+        <v>181.2320710941377</v>
       </c>
       <c r="K35" t="n">
         <v>271.6198950021757</v>
@@ -33666,31 +33666,31 @@
         <v>336.9684980242787</v>
       </c>
       <c r="M35" t="n">
-        <v>374.9423809305997</v>
+        <v>374.9423809305998</v>
       </c>
       <c r="N35" t="n">
-        <v>381.0093406442476</v>
+        <v>381.0093406442477</v>
       </c>
       <c r="O35" t="n">
-        <v>359.7763162174686</v>
+        <v>359.7763162174687</v>
       </c>
       <c r="P35" t="n">
-        <v>307.0607621723543</v>
+        <v>307.0607621723544</v>
       </c>
       <c r="Q35" t="n">
-        <v>230.5898445322264</v>
+        <v>230.5898445322265</v>
       </c>
       <c r="R35" t="n">
         <v>134.1323917685636</v>
       </c>
       <c r="S35" t="n">
-        <v>48.65845824012326</v>
+        <v>48.65845824012327</v>
       </c>
       <c r="T35" t="n">
-        <v>9.347335203341283</v>
+        <v>9.347335203341284</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1708250865259399</v>
+        <v>0.17082508652594</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,7 +33730,7 @@
         <v>1.142493488480978</v>
       </c>
       <c r="H36" t="n">
-        <v>11.03408184927681</v>
+        <v>11.03408184927682</v>
       </c>
       <c r="I36" t="n">
         <v>39.33585037094596</v>
@@ -33739,37 +33739,37 @@
         <v>107.9405799796875</v>
       </c>
       <c r="K36" t="n">
-        <v>184.487643707913</v>
+        <v>184.4876437079131</v>
       </c>
       <c r="L36" t="n">
-        <v>248.0664041546088</v>
+        <v>248.0664041546089</v>
       </c>
       <c r="M36" t="n">
-        <v>289.4817931120442</v>
+        <v>289.4817931120443</v>
       </c>
       <c r="N36" t="n">
-        <v>297.143514795761</v>
+        <v>297.1435147957611</v>
       </c>
       <c r="O36" t="n">
-        <v>271.8282643404719</v>
+        <v>271.828264340472</v>
       </c>
       <c r="P36" t="n">
-        <v>218.1661469363369</v>
+        <v>218.166146936337</v>
       </c>
       <c r="Q36" t="n">
         <v>145.8382916173263</v>
       </c>
       <c r="R36" t="n">
-        <v>70.93481501288039</v>
+        <v>70.93481501288041</v>
       </c>
       <c r="S36" t="n">
-        <v>21.22131545489885</v>
+        <v>21.22131545489886</v>
       </c>
       <c r="T36" t="n">
-        <v>4.605050508394817</v>
+        <v>4.605050508394818</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07516404529480121</v>
+        <v>0.07516404529480122</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9578281618987777</v>
+        <v>0.957828161898778</v>
       </c>
       <c r="H37" t="n">
-        <v>8.515963112154594</v>
+        <v>8.515963112154596</v>
       </c>
       <c r="I37" t="n">
         <v>28.80450508691962</v>
       </c>
       <c r="J37" t="n">
-        <v>67.71845104624359</v>
+        <v>67.7184510462436</v>
       </c>
       <c r="K37" t="n">
         <v>111.2822173551489</v>
@@ -33836,19 +33836,19 @@
         <v>115.8449624172849</v>
       </c>
       <c r="Q37" t="n">
-        <v>80.20504726590585</v>
+        <v>80.20504726590586</v>
       </c>
       <c r="R37" t="n">
-        <v>43.06743717046685</v>
+        <v>43.06743717046686</v>
       </c>
       <c r="S37" t="n">
         <v>16.69233260327233</v>
       </c>
       <c r="T37" t="n">
-        <v>4.09253850993114</v>
+        <v>4.092538509931141</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05224517246720612</v>
+        <v>0.05224517246720613</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,10 +33891,10 @@
         <v>21.86828021729729</v>
       </c>
       <c r="I38" t="n">
-        <v>82.32167685364134</v>
+        <v>82.32167685364135</v>
       </c>
       <c r="J38" t="n">
-        <v>181.2320710941376</v>
+        <v>181.2320710941377</v>
       </c>
       <c r="K38" t="n">
         <v>271.6198950021757</v>
@@ -33903,31 +33903,31 @@
         <v>336.9684980242787</v>
       </c>
       <c r="M38" t="n">
-        <v>374.9423809305997</v>
+        <v>374.9423809305998</v>
       </c>
       <c r="N38" t="n">
-        <v>381.0093406442476</v>
+        <v>381.0093406442477</v>
       </c>
       <c r="O38" t="n">
-        <v>359.7763162174686</v>
+        <v>359.7763162174687</v>
       </c>
       <c r="P38" t="n">
-        <v>307.0607621723543</v>
+        <v>307.0607621723544</v>
       </c>
       <c r="Q38" t="n">
-        <v>230.5898445322264</v>
+        <v>230.5898445322265</v>
       </c>
       <c r="R38" t="n">
         <v>134.1323917685636</v>
       </c>
       <c r="S38" t="n">
-        <v>48.65845824012326</v>
+        <v>48.65845824012327</v>
       </c>
       <c r="T38" t="n">
-        <v>9.347335203341283</v>
+        <v>9.347335203341284</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1708250865259399</v>
+        <v>0.17082508652594</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,7 +33967,7 @@
         <v>1.142493488480978</v>
       </c>
       <c r="H39" t="n">
-        <v>11.03408184927681</v>
+        <v>11.03408184927682</v>
       </c>
       <c r="I39" t="n">
         <v>39.33585037094596</v>
@@ -33976,37 +33976,37 @@
         <v>107.9405799796875</v>
       </c>
       <c r="K39" t="n">
-        <v>184.487643707913</v>
+        <v>184.4876437079131</v>
       </c>
       <c r="L39" t="n">
-        <v>248.0664041546088</v>
+        <v>248.0664041546089</v>
       </c>
       <c r="M39" t="n">
-        <v>289.4817931120442</v>
+        <v>289.4817931120443</v>
       </c>
       <c r="N39" t="n">
-        <v>297.143514795761</v>
+        <v>297.1435147957611</v>
       </c>
       <c r="O39" t="n">
-        <v>271.8282643404719</v>
+        <v>271.828264340472</v>
       </c>
       <c r="P39" t="n">
-        <v>218.1661469363369</v>
+        <v>218.166146936337</v>
       </c>
       <c r="Q39" t="n">
         <v>145.8382916173263</v>
       </c>
       <c r="R39" t="n">
-        <v>70.93481501288039</v>
+        <v>70.93481501288041</v>
       </c>
       <c r="S39" t="n">
-        <v>21.22131545489885</v>
+        <v>21.22131545489886</v>
       </c>
       <c r="T39" t="n">
-        <v>4.605050508394817</v>
+        <v>4.605050508394818</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07516404529480121</v>
+        <v>0.07516404529480122</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9578281618987777</v>
+        <v>0.957828161898778</v>
       </c>
       <c r="H40" t="n">
-        <v>8.515963112154594</v>
+        <v>8.515963112154596</v>
       </c>
       <c r="I40" t="n">
         <v>28.80450508691962</v>
       </c>
       <c r="J40" t="n">
-        <v>67.71845104624359</v>
+        <v>67.7184510462436</v>
       </c>
       <c r="K40" t="n">
         <v>111.2822173551489</v>
@@ -34073,19 +34073,19 @@
         <v>115.8449624172849</v>
       </c>
       <c r="Q40" t="n">
-        <v>80.20504726590585</v>
+        <v>80.20504726590586</v>
       </c>
       <c r="R40" t="n">
-        <v>43.06743717046685</v>
+        <v>43.06743717046686</v>
       </c>
       <c r="S40" t="n">
         <v>16.69233260327233</v>
       </c>
       <c r="T40" t="n">
-        <v>4.09253850993114</v>
+        <v>4.092538509931141</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05224517246720612</v>
+        <v>0.05224517246720613</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,10 +34128,10 @@
         <v>21.86828021729729</v>
       </c>
       <c r="I41" t="n">
-        <v>82.32167685364134</v>
+        <v>82.32167685364135</v>
       </c>
       <c r="J41" t="n">
-        <v>181.2320710941376</v>
+        <v>181.2320710941377</v>
       </c>
       <c r="K41" t="n">
         <v>271.6198950021757</v>
@@ -34140,31 +34140,31 @@
         <v>336.9684980242787</v>
       </c>
       <c r="M41" t="n">
-        <v>374.9423809305997</v>
+        <v>374.9423809305998</v>
       </c>
       <c r="N41" t="n">
-        <v>381.0093406442476</v>
+        <v>381.0093406442477</v>
       </c>
       <c r="O41" t="n">
-        <v>359.7763162174686</v>
+        <v>359.7763162174687</v>
       </c>
       <c r="P41" t="n">
-        <v>307.0607621723543</v>
+        <v>307.0607621723544</v>
       </c>
       <c r="Q41" t="n">
-        <v>230.5898445322264</v>
+        <v>230.5898445322265</v>
       </c>
       <c r="R41" t="n">
         <v>134.1323917685636</v>
       </c>
       <c r="S41" t="n">
-        <v>48.65845824012326</v>
+        <v>48.65845824012327</v>
       </c>
       <c r="T41" t="n">
-        <v>9.347335203341283</v>
+        <v>9.347335203341284</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1708250865259399</v>
+        <v>0.17082508652594</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,7 +34204,7 @@
         <v>1.142493488480978</v>
       </c>
       <c r="H42" t="n">
-        <v>11.03408184927681</v>
+        <v>11.03408184927682</v>
       </c>
       <c r="I42" t="n">
         <v>39.33585037094596</v>
@@ -34213,37 +34213,37 @@
         <v>107.9405799796875</v>
       </c>
       <c r="K42" t="n">
-        <v>184.487643707913</v>
+        <v>184.4876437079131</v>
       </c>
       <c r="L42" t="n">
-        <v>248.0664041546088</v>
+        <v>248.0664041546089</v>
       </c>
       <c r="M42" t="n">
-        <v>289.4817931120442</v>
+        <v>289.4817931120443</v>
       </c>
       <c r="N42" t="n">
-        <v>297.143514795761</v>
+        <v>297.1435147957611</v>
       </c>
       <c r="O42" t="n">
-        <v>271.8282643404719</v>
+        <v>271.828264340472</v>
       </c>
       <c r="P42" t="n">
-        <v>218.1661469363369</v>
+        <v>218.166146936337</v>
       </c>
       <c r="Q42" t="n">
         <v>145.8382916173263</v>
       </c>
       <c r="R42" t="n">
-        <v>70.93481501288039</v>
+        <v>70.93481501288041</v>
       </c>
       <c r="S42" t="n">
-        <v>21.22131545489885</v>
+        <v>21.22131545489886</v>
       </c>
       <c r="T42" t="n">
-        <v>4.605050508394817</v>
+        <v>4.605050508394818</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07516404529480121</v>
+        <v>0.07516404529480122</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9578281618987777</v>
+        <v>0.957828161898778</v>
       </c>
       <c r="H43" t="n">
-        <v>8.515963112154594</v>
+        <v>8.515963112154596</v>
       </c>
       <c r="I43" t="n">
         <v>28.80450508691962</v>
       </c>
       <c r="J43" t="n">
-        <v>67.71845104624359</v>
+        <v>67.7184510462436</v>
       </c>
       <c r="K43" t="n">
         <v>111.2822173551489</v>
@@ -34310,19 +34310,19 @@
         <v>115.8449624172849</v>
       </c>
       <c r="Q43" t="n">
-        <v>80.20504726590585</v>
+        <v>80.20504726590586</v>
       </c>
       <c r="R43" t="n">
-        <v>43.06743717046685</v>
+        <v>43.06743717046686</v>
       </c>
       <c r="S43" t="n">
         <v>16.69233260327233</v>
       </c>
       <c r="T43" t="n">
-        <v>4.09253850993114</v>
+        <v>4.092538509931141</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05224517246720612</v>
+        <v>0.05224517246720613</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,10 +34365,10 @@
         <v>21.86828021729729</v>
       </c>
       <c r="I44" t="n">
-        <v>82.32167685364134</v>
+        <v>82.32167685364135</v>
       </c>
       <c r="J44" t="n">
-        <v>181.2320710941376</v>
+        <v>181.2320710941377</v>
       </c>
       <c r="K44" t="n">
         <v>271.6198950021757</v>
@@ -34377,31 +34377,31 @@
         <v>336.9684980242787</v>
       </c>
       <c r="M44" t="n">
-        <v>374.9423809305997</v>
+        <v>374.9423809305998</v>
       </c>
       <c r="N44" t="n">
-        <v>381.0093406442476</v>
+        <v>381.0093406442477</v>
       </c>
       <c r="O44" t="n">
-        <v>359.7763162174686</v>
+        <v>359.7763162174687</v>
       </c>
       <c r="P44" t="n">
-        <v>307.0607621723543</v>
+        <v>307.0607621723544</v>
       </c>
       <c r="Q44" t="n">
-        <v>230.5898445322264</v>
+        <v>230.5898445322265</v>
       </c>
       <c r="R44" t="n">
         <v>134.1323917685636</v>
       </c>
       <c r="S44" t="n">
-        <v>48.65845824012326</v>
+        <v>48.65845824012327</v>
       </c>
       <c r="T44" t="n">
-        <v>9.347335203341283</v>
+        <v>9.347335203341284</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1708250865259399</v>
+        <v>0.17082508652594</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,7 +34441,7 @@
         <v>1.142493488480978</v>
       </c>
       <c r="H45" t="n">
-        <v>11.03408184927681</v>
+        <v>11.03408184927682</v>
       </c>
       <c r="I45" t="n">
         <v>39.33585037094596</v>
@@ -34450,37 +34450,37 @@
         <v>107.9405799796875</v>
       </c>
       <c r="K45" t="n">
-        <v>184.487643707913</v>
+        <v>184.4876437079131</v>
       </c>
       <c r="L45" t="n">
-        <v>248.0664041546088</v>
+        <v>248.0664041546089</v>
       </c>
       <c r="M45" t="n">
-        <v>289.4817931120442</v>
+        <v>289.4817931120443</v>
       </c>
       <c r="N45" t="n">
-        <v>297.143514795761</v>
+        <v>297.1435147957611</v>
       </c>
       <c r="O45" t="n">
-        <v>271.8282643404719</v>
+        <v>271.828264340472</v>
       </c>
       <c r="P45" t="n">
-        <v>218.1661469363369</v>
+        <v>218.166146936337</v>
       </c>
       <c r="Q45" t="n">
         <v>145.8382916173263</v>
       </c>
       <c r="R45" t="n">
-        <v>70.93481501288039</v>
+        <v>70.93481501288041</v>
       </c>
       <c r="S45" t="n">
-        <v>21.22131545489885</v>
+        <v>21.22131545489886</v>
       </c>
       <c r="T45" t="n">
-        <v>4.605050508394817</v>
+        <v>4.605050508394818</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07516404529480121</v>
+        <v>0.07516404529480122</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9578281618987777</v>
+        <v>0.957828161898778</v>
       </c>
       <c r="H46" t="n">
-        <v>8.515963112154594</v>
+        <v>8.515963112154596</v>
       </c>
       <c r="I46" t="n">
         <v>28.80450508691962</v>
       </c>
       <c r="J46" t="n">
-        <v>67.71845104624359</v>
+        <v>67.7184510462436</v>
       </c>
       <c r="K46" t="n">
         <v>111.2822173551489</v>
@@ -34547,19 +34547,19 @@
         <v>115.8449624172849</v>
       </c>
       <c r="Q46" t="n">
-        <v>80.20504726590585</v>
+        <v>80.20504726590586</v>
       </c>
       <c r="R46" t="n">
-        <v>43.06743717046685</v>
+        <v>43.06743717046686</v>
       </c>
       <c r="S46" t="n">
         <v>16.69233260327233</v>
       </c>
       <c r="T46" t="n">
-        <v>4.09253850993114</v>
+        <v>4.092538509931141</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05224517246720612</v>
+        <v>0.05224517246720613</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35506,10 +35506,10 @@
         <v>214.076785340472</v>
       </c>
       <c r="P12" t="n">
-        <v>265.8007319434819</v>
+        <v>163.9065119335332</v>
       </c>
       <c r="Q12" t="n">
-        <v>89.14567311248757</v>
+        <v>191.0398931224363</v>
       </c>
       <c r="R12" t="n">
         <v>100.7929153791732</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>16.28530536328818</v>
+        <v>81.94324842524412</v>
       </c>
       <c r="K13" t="n">
         <v>267.3956797008439</v>
       </c>
       <c r="L13" t="n">
-        <v>87.77463119421319</v>
+        <v>404.9252486033274</v>
       </c>
       <c r="M13" t="n">
-        <v>442.3298337384635</v>
+        <v>93.87897564322566</v>
       </c>
       <c r="N13" t="n">
-        <v>430.2493691287167</v>
+        <v>94.86118584832728</v>
       </c>
       <c r="O13" t="n">
-        <v>79.30975884702372</v>
+        <v>356.001273035768</v>
       </c>
       <c r="P13" t="n">
-        <v>299.2589656505752</v>
+        <v>323.5979323663882</v>
       </c>
       <c r="Q13" t="n">
         <v>146.3949763593511</v>
@@ -35725,7 +35725,7 @@
         <v>18.79474490498374</v>
       </c>
       <c r="J15" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K15" t="n">
         <v>128.6618609232977</v>
@@ -35734,22 +35734,22 @@
         <v>191.9518803437599</v>
       </c>
       <c r="M15" t="n">
-        <v>417.3193889531352</v>
+        <v>231.9175093736268</v>
       </c>
       <c r="N15" t="n">
         <v>243.9501214020111</v>
       </c>
       <c r="O15" t="n">
-        <v>446.7623813221048</v>
+        <v>214.076785340472</v>
       </c>
       <c r="P15" t="n">
         <v>163.9065119335332</v>
       </c>
       <c r="Q15" t="n">
-        <v>89.14567311248757</v>
+        <v>172.2451482174526</v>
       </c>
       <c r="R15" t="n">
-        <v>11.934615907475</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>81.94324842524412</v>
       </c>
       <c r="K16" t="n">
-        <v>177.398769923075</v>
+        <v>267.3956797008439</v>
       </c>
       <c r="L16" t="n">
-        <v>87.77463119421319</v>
+        <v>404.9252486033274</v>
       </c>
       <c r="M16" t="n">
         <v>442.3298337384635</v>
       </c>
       <c r="N16" t="n">
-        <v>430.2493691287167</v>
+        <v>414.1841082842125</v>
       </c>
       <c r="O16" t="n">
         <v>79.30975884702372</v>
       </c>
       <c r="P16" t="n">
-        <v>323.5979323663882</v>
+        <v>60.06512077738009</v>
       </c>
       <c r="Q16" t="n">
-        <v>146.3949763593511</v>
+        <v>18.8455216059803</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>107.9084797608303</v>
+        <v>107.9084797608297</v>
       </c>
       <c r="K17" t="n">
         <v>182.4835053289586</v>
@@ -35904,7 +35904,7 @@
         <v>213.4113988914702</v>
       </c>
       <c r="Q17" t="n">
-        <v>140.5560401330744</v>
+        <v>140.5560401330751</v>
       </c>
       <c r="R17" t="n">
         <v>46.82024895384008</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J18" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K18" t="n">
-        <v>310.7335804110777</v>
+        <v>128.6618609232977</v>
       </c>
       <c r="L18" t="n">
-        <v>446.7623813221049</v>
+        <v>191.9518803437599</v>
       </c>
       <c r="M18" t="n">
         <v>231.9175093736268</v>
@@ -35983,10 +35983,10 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q18" t="n">
-        <v>89.14567311248757</v>
+        <v>172.2451482174526</v>
       </c>
       <c r="R18" t="n">
-        <v>11.934615907475</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>16.28530536328818</v>
+        <v>81.94324842524412</v>
       </c>
       <c r="K19" t="n">
         <v>267.3956797008439</v>
       </c>
       <c r="L19" t="n">
-        <v>190.9851192317713</v>
+        <v>404.9252486033274</v>
       </c>
       <c r="M19" t="n">
-        <v>442.3298337384635</v>
+        <v>93.87897564322566</v>
       </c>
       <c r="N19" t="n">
-        <v>430.2493691287167</v>
+        <v>180.8448220442399</v>
       </c>
       <c r="O19" t="n">
-        <v>79.30975884702372</v>
+        <v>397.5670915932262</v>
       </c>
       <c r="P19" t="n">
         <v>323.5979323663882</v>
@@ -36129,7 +36129,7 @@
         <v>241.4830999614339</v>
       </c>
       <c r="M20" t="n">
-        <v>281.6521564735544</v>
+        <v>281.652156473555</v>
       </c>
       <c r="N20" t="n">
         <v>288.0970498876284</v>
@@ -36138,7 +36138,7 @@
         <v>266.5865405916856</v>
       </c>
       <c r="P20" t="n">
-        <v>213.4113988914709</v>
+        <v>213.4113988914702</v>
       </c>
       <c r="Q20" t="n">
         <v>140.5560401330744</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J21" t="n">
-        <v>171.9096661924815</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K21" t="n">
         <v>128.6618609232977</v>
@@ -36214,13 +36214,13 @@
         <v>243.9501214020111</v>
       </c>
       <c r="O21" t="n">
-        <v>446.7623813221049</v>
+        <v>214.076785340472</v>
       </c>
       <c r="P21" t="n">
         <v>163.9065119335332</v>
       </c>
       <c r="Q21" t="n">
-        <v>89.14567311248757</v>
+        <v>172.2451482174528</v>
       </c>
       <c r="R21" t="n">
         <v>100.7929153791732</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>16.28530536328818</v>
+        <v>65.87798758074015</v>
       </c>
       <c r="K22" t="n">
-        <v>59.03184779608208</v>
+        <v>267.3956797008439</v>
       </c>
       <c r="L22" t="n">
-        <v>301.9930217321977</v>
+        <v>404.9252486033274</v>
       </c>
       <c r="M22" t="n">
-        <v>93.87897564322566</v>
+        <v>442.3298337384635</v>
       </c>
       <c r="N22" t="n">
         <v>430.2493691287167</v>
       </c>
       <c r="O22" t="n">
-        <v>397.5670915932262</v>
+        <v>79.30975884702372</v>
       </c>
       <c r="P22" t="n">
-        <v>323.5979323663882</v>
+        <v>60.06512077738009</v>
       </c>
       <c r="Q22" t="n">
-        <v>146.3949763593511</v>
+        <v>18.8455216059803</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,10 +36363,10 @@
         <v>182.4835053289586</v>
       </c>
       <c r="L23" t="n">
-        <v>254.5294813420083</v>
+        <v>241.4830999614339</v>
       </c>
       <c r="M23" t="n">
-        <v>506.9586407647101</v>
+        <v>281.6521564735544</v>
       </c>
       <c r="N23" t="n">
         <v>288.0970498876284</v>
@@ -36378,7 +36378,7 @@
         <v>213.4113988914702</v>
       </c>
       <c r="Q23" t="n">
-        <v>140.5560401330744</v>
+        <v>378.9089058048045</v>
       </c>
       <c r="R23" t="n">
         <v>46.82024895384008</v>
@@ -36442,25 +36442,25 @@
         <v>128.6618609232977</v>
       </c>
       <c r="L24" t="n">
-        <v>191.9518803437599</v>
+        <v>506.9586407647101</v>
       </c>
       <c r="M24" t="n">
-        <v>231.9175093736268</v>
+        <v>506.9586407647101</v>
       </c>
       <c r="N24" t="n">
-        <v>243.9501214020111</v>
+        <v>329.1373157278322</v>
       </c>
       <c r="O24" t="n">
-        <v>506.9586407647101</v>
+        <v>214.076785340472</v>
       </c>
       <c r="P24" t="n">
-        <v>506.9586407647101</v>
+        <v>163.9065119335332</v>
       </c>
       <c r="Q24" t="n">
         <v>89.14567311248757</v>
       </c>
       <c r="R24" t="n">
-        <v>51.23571778991469</v>
+        <v>11.934615907475</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>16.28530536328818</v>
+        <v>81.94324842524412</v>
       </c>
       <c r="K25" t="n">
-        <v>59.03184779608208</v>
+        <v>267.3956797008439</v>
       </c>
       <c r="L25" t="n">
-        <v>191.8950293086897</v>
+        <v>181.40606593098</v>
       </c>
       <c r="M25" t="n">
         <v>442.3298337384635</v>
@@ -36533,7 +36533,7 @@
         <v>397.5670915932262</v>
       </c>
       <c r="P25" t="n">
-        <v>323.5979323663882</v>
+        <v>60.06512077738009</v>
       </c>
       <c r="Q25" t="n">
         <v>146.3949763593511</v>
@@ -36597,28 +36597,28 @@
         <v>107.9084797608297</v>
       </c>
       <c r="K26" t="n">
-        <v>182.4835053289585</v>
+        <v>182.4835053289586</v>
       </c>
       <c r="L26" t="n">
         <v>241.4830999614339</v>
       </c>
       <c r="M26" t="n">
-        <v>281.6521564735543</v>
+        <v>281.6521564735544</v>
       </c>
       <c r="N26" t="n">
-        <v>288.0970498876283</v>
+        <v>288.0970498876284</v>
       </c>
       <c r="O26" t="n">
-        <v>266.5865405916855</v>
+        <v>266.5865405916856</v>
       </c>
       <c r="P26" t="n">
-        <v>451.7642645632008</v>
+        <v>213.4113988914702</v>
       </c>
       <c r="Q26" t="n">
-        <v>140.5560401330744</v>
+        <v>250.6304542127426</v>
       </c>
       <c r="R26" t="n">
-        <v>46.82024895384005</v>
+        <v>175.0987005459018</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>56.57134117968749</v>
+        <v>232.8772621854662</v>
       </c>
       <c r="K27" t="n">
-        <v>128.6618609232976</v>
+        <v>128.6618609232977</v>
       </c>
       <c r="L27" t="n">
-        <v>506.95864076471</v>
+        <v>191.9518803437599</v>
       </c>
       <c r="M27" t="n">
-        <v>249.0937062593549</v>
+        <v>231.9175093736268</v>
       </c>
       <c r="N27" t="n">
-        <v>243.950121402011</v>
+        <v>243.9501214020111</v>
       </c>
       <c r="O27" t="n">
         <v>214.076785340472</v>
       </c>
       <c r="P27" t="n">
-        <v>506.95864076471</v>
+        <v>163.9065119335332</v>
       </c>
       <c r="Q27" t="n">
-        <v>89.14567311248754</v>
+        <v>499.2165387728651</v>
       </c>
       <c r="R27" t="n">
-        <v>11.93461590747498</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.94324842524412</v>
+        <v>16.28530536328818</v>
       </c>
       <c r="K28" t="n">
-        <v>128.7945435347258</v>
+        <v>267.3956797008439</v>
       </c>
       <c r="L28" t="n">
         <v>404.9252486033274</v>
       </c>
       <c r="M28" t="n">
-        <v>93.87897564322563</v>
+        <v>93.87897564322566</v>
       </c>
       <c r="N28" t="n">
         <v>430.2493691287167</v>
@@ -36773,7 +36773,7 @@
         <v>323.5979323663882</v>
       </c>
       <c r="Q28" t="n">
-        <v>146.3949763593511</v>
+        <v>73.45178325518907</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>107.9084797608297</v>
       </c>
       <c r="K29" t="n">
-        <v>182.4835053289585</v>
+        <v>292.557919408627</v>
       </c>
       <c r="L29" t="n">
         <v>241.4830999614339</v>
       </c>
       <c r="M29" t="n">
-        <v>281.6521564735543</v>
+        <v>281.6521564735544</v>
       </c>
       <c r="N29" t="n">
-        <v>288.0970498876283</v>
+        <v>288.0970498876284</v>
       </c>
       <c r="O29" t="n">
-        <v>266.5865405916855</v>
+        <v>266.5865405916856</v>
       </c>
       <c r="P29" t="n">
         <v>213.4113988914702</v>
       </c>
       <c r="Q29" t="n">
-        <v>378.9089058048049</v>
+        <v>140.5560401330744</v>
       </c>
       <c r="R29" t="n">
-        <v>46.82024895384005</v>
+        <v>175.0987005459018</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>18.79474490498373</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>302.7010421641655</v>
+        <v>232.8772621854662</v>
       </c>
       <c r="K30" t="n">
-        <v>128.6618609232976</v>
+        <v>128.6618609232977</v>
       </c>
       <c r="L30" t="n">
-        <v>191.9518803437598</v>
+        <v>191.9518803437599</v>
       </c>
       <c r="M30" t="n">
         <v>231.9175093736268</v>
       </c>
       <c r="N30" t="n">
-        <v>506.95864076471</v>
+        <v>243.9501214020111</v>
       </c>
       <c r="O30" t="n">
         <v>214.076785340472</v>
       </c>
       <c r="P30" t="n">
-        <v>222.3503333475287</v>
+        <v>163.9065119335332</v>
       </c>
       <c r="Q30" t="n">
-        <v>89.14567311248754</v>
+        <v>499.2165387728651</v>
       </c>
       <c r="R30" t="n">
         <v>100.7929153791732</v>
@@ -36992,16 +36992,16 @@
         <v>81.94324842524412</v>
       </c>
       <c r="K31" t="n">
-        <v>59.03184779608206</v>
+        <v>267.3956797008439</v>
       </c>
       <c r="L31" t="n">
         <v>404.9252486033274</v>
       </c>
       <c r="M31" t="n">
-        <v>163.6416713818694</v>
+        <v>93.87897564322566</v>
       </c>
       <c r="N31" t="n">
-        <v>430.2493691287167</v>
+        <v>291.6482329625985</v>
       </c>
       <c r="O31" t="n">
         <v>397.5670915932262</v>
@@ -37068,22 +37068,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>120.9548611414046</v>
+        <v>346.2613454325598</v>
       </c>
       <c r="K32" t="n">
-        <v>182.4835053289585</v>
+        <v>182.4835053289586</v>
       </c>
       <c r="L32" t="n">
         <v>241.4830999614339</v>
       </c>
       <c r="M32" t="n">
-        <v>506.95864076471</v>
+        <v>281.6521564735544</v>
       </c>
       <c r="N32" t="n">
-        <v>288.0970498876283</v>
+        <v>288.0970498876284</v>
       </c>
       <c r="O32" t="n">
-        <v>266.5865405916855</v>
+        <v>266.5865405916856</v>
       </c>
       <c r="P32" t="n">
         <v>213.4113988914702</v>
@@ -37092,7 +37092,7 @@
         <v>140.5560401330744</v>
       </c>
       <c r="R32" t="n">
-        <v>46.82024895384005</v>
+        <v>46.82024895384008</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>56.57134117968749</v>
+        <v>232.8772621854662</v>
       </c>
       <c r="K33" t="n">
-        <v>128.6618609232976</v>
+        <v>128.6618609232977</v>
       </c>
       <c r="L33" t="n">
-        <v>191.9518803437598</v>
+        <v>191.9518803437599</v>
       </c>
       <c r="M33" t="n">
-        <v>506.95864076471</v>
+        <v>231.9175093736268</v>
       </c>
       <c r="N33" t="n">
-        <v>243.950121402011</v>
+        <v>243.9501214020111</v>
       </c>
       <c r="O33" t="n">
         <v>214.076785340472</v>
       </c>
       <c r="P33" t="n">
-        <v>506.95864076471</v>
+        <v>163.9065119335332</v>
       </c>
       <c r="Q33" t="n">
-        <v>146.2874990280822</v>
+        <v>499.2165387728651</v>
       </c>
       <c r="R33" t="n">
-        <v>11.93461590747498</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>81.94324842524412</v>
       </c>
       <c r="K34" t="n">
-        <v>59.03184779608206</v>
+        <v>267.3956797008439</v>
       </c>
       <c r="L34" t="n">
         <v>404.9252486033274</v>
@@ -37238,10 +37238,10 @@
         <v>442.3298337384635</v>
       </c>
       <c r="N34" t="n">
-        <v>430.2493691287167</v>
+        <v>261.4547076135633</v>
       </c>
       <c r="O34" t="n">
-        <v>118.8789292366322</v>
+        <v>79.30975884702372</v>
       </c>
       <c r="P34" t="n">
         <v>323.5979323663882</v>
@@ -37308,28 +37308,28 @@
         <v>107.9084797608297</v>
       </c>
       <c r="K35" t="n">
-        <v>182.4835053289585</v>
+        <v>182.4835053289586</v>
       </c>
       <c r="L35" t="n">
         <v>241.4830999614339</v>
       </c>
       <c r="M35" t="n">
-        <v>281.6521564735543</v>
+        <v>281.6521564735544</v>
       </c>
       <c r="N35" t="n">
-        <v>288.0970498876283</v>
+        <v>288.0970498876284</v>
       </c>
       <c r="O35" t="n">
-        <v>266.5865405916855</v>
+        <v>266.5865405916856</v>
       </c>
       <c r="P35" t="n">
-        <v>213.4113988914704</v>
+        <v>213.4113988914702</v>
       </c>
       <c r="Q35" t="n">
-        <v>140.5560401330744</v>
+        <v>140.5560401330751</v>
       </c>
       <c r="R35" t="n">
-        <v>46.82024895384005</v>
+        <v>46.82024895384008</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J36" t="n">
-        <v>56.57134117968749</v>
+        <v>56.57134117968751</v>
       </c>
       <c r="K36" t="n">
-        <v>128.6618609232976</v>
+        <v>128.6618609232977</v>
       </c>
       <c r="L36" t="n">
-        <v>325.1309293897081</v>
+        <v>191.9518803437599</v>
       </c>
       <c r="M36" t="n">
-        <v>446.7623813221046</v>
+        <v>231.9175093736268</v>
       </c>
       <c r="N36" t="n">
-        <v>243.950121402011</v>
+        <v>243.9501214020111</v>
       </c>
       <c r="O36" t="n">
-        <v>214.076785340472</v>
+        <v>260.4500920413433</v>
       </c>
       <c r="P36" t="n">
-        <v>163.9065119335332</v>
+        <v>446.7623813221048</v>
       </c>
       <c r="Q36" t="n">
-        <v>89.14567311248754</v>
+        <v>89.14567311248757</v>
       </c>
       <c r="R36" t="n">
         <v>100.7929153791732</v>
@@ -37463,25 +37463,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>40.37742986778513</v>
+        <v>16.28530536328818</v>
       </c>
       <c r="K37" t="n">
-        <v>267.3956797008438</v>
+        <v>59.03184779608208</v>
       </c>
       <c r="L37" t="n">
         <v>404.9252486033274</v>
       </c>
       <c r="M37" t="n">
-        <v>93.87897564322563</v>
+        <v>254.4795603611037</v>
       </c>
       <c r="N37" t="n">
-        <v>94.86118584832725</v>
+        <v>430.2493691287167</v>
       </c>
       <c r="O37" t="n">
         <v>397.5670915932262</v>
       </c>
       <c r="P37" t="n">
-        <v>323.5979323663882</v>
+        <v>60.06512077738009</v>
       </c>
       <c r="Q37" t="n">
         <v>146.3949763593511</v>
@@ -37545,28 +37545,28 @@
         <v>107.9084797608297</v>
       </c>
       <c r="K38" t="n">
-        <v>182.4835053289585</v>
+        <v>182.4835053289586</v>
       </c>
       <c r="L38" t="n">
         <v>241.4830999614339</v>
       </c>
       <c r="M38" t="n">
-        <v>281.6521564735543</v>
+        <v>281.6521564735544</v>
       </c>
       <c r="N38" t="n">
-        <v>288.0970498876283</v>
+        <v>288.0970498876284</v>
       </c>
       <c r="O38" t="n">
-        <v>266.5865405916855</v>
+        <v>266.5865405916856</v>
       </c>
       <c r="P38" t="n">
         <v>213.4113988914702</v>
       </c>
       <c r="Q38" t="n">
-        <v>140.5560401330744</v>
+        <v>140.5560401330751</v>
       </c>
       <c r="R38" t="n">
-        <v>46.82024895384005</v>
+        <v>46.82024895384008</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J39" t="n">
-        <v>56.57134117968749</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K39" t="n">
-        <v>128.6618609232976</v>
+        <v>128.6618609232977</v>
       </c>
       <c r="L39" t="n">
-        <v>191.9518803437598</v>
+        <v>191.9518803437599</v>
       </c>
       <c r="M39" t="n">
         <v>231.9175093736268</v>
       </c>
       <c r="N39" t="n">
-        <v>243.950121402011</v>
+        <v>243.9501214020111</v>
       </c>
       <c r="O39" t="n">
         <v>214.076785340472</v>
@@ -37642,7 +37642,7 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q39" t="n">
-        <v>437.1695941069137</v>
+        <v>172.2451482174526</v>
       </c>
       <c r="R39" t="n">
         <v>100.7929153791732</v>
@@ -37703,25 +37703,25 @@
         <v>81.94324842524412</v>
       </c>
       <c r="K40" t="n">
-        <v>59.03184779608206</v>
+        <v>267.3956797008439</v>
       </c>
       <c r="L40" t="n">
         <v>404.9252486033274</v>
       </c>
       <c r="M40" t="n">
-        <v>442.3298337384635</v>
+        <v>93.87897564322566</v>
       </c>
       <c r="N40" t="n">
-        <v>231.4656738465945</v>
+        <v>180.8448220442399</v>
       </c>
       <c r="O40" t="n">
-        <v>79.30975884702369</v>
+        <v>397.5670915932262</v>
       </c>
       <c r="P40" t="n">
         <v>323.5979323663882</v>
       </c>
       <c r="Q40" t="n">
-        <v>146.3949763593511</v>
+        <v>18.8455216059803</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,19 +37782,19 @@
         <v>107.9084797608297</v>
       </c>
       <c r="K41" t="n">
-        <v>182.4835053289585</v>
+        <v>182.4835053289586</v>
       </c>
       <c r="L41" t="n">
         <v>241.4830999614339</v>
       </c>
       <c r="M41" t="n">
-        <v>281.6521564735543</v>
+        <v>281.6521564735544</v>
       </c>
       <c r="N41" t="n">
-        <v>288.0970498876283</v>
+        <v>288.0970498876284</v>
       </c>
       <c r="O41" t="n">
-        <v>266.5865405916855</v>
+        <v>266.5865405916856</v>
       </c>
       <c r="P41" t="n">
         <v>213.4113988914702</v>
@@ -37803,7 +37803,7 @@
         <v>140.5560401330744</v>
       </c>
       <c r="R41" t="n">
-        <v>46.82024895384005</v>
+        <v>46.82024895384008</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>18.79474490498373</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J42" t="n">
-        <v>56.57134117968749</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K42" t="n">
-        <v>291.9388355060933</v>
+        <v>128.6618609232977</v>
       </c>
       <c r="L42" t="n">
-        <v>446.7623813221045</v>
+        <v>191.9518803437599</v>
       </c>
       <c r="M42" t="n">
         <v>231.9175093736268</v>
       </c>
       <c r="N42" t="n">
-        <v>243.950121402011</v>
+        <v>243.9501214020111</v>
       </c>
       <c r="O42" t="n">
         <v>214.076785340472</v>
@@ -37879,10 +37879,10 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q42" t="n">
-        <v>89.14567311248754</v>
+        <v>172.2451482174526</v>
       </c>
       <c r="R42" t="n">
-        <v>11.93461590747498</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>16.28530536328817</v>
+        <v>16.28530536328818</v>
       </c>
       <c r="K43" t="n">
-        <v>59.03184779608206</v>
+        <v>267.3956797008439</v>
       </c>
       <c r="L43" t="n">
         <v>404.9252486033274</v>
       </c>
       <c r="M43" t="n">
-        <v>309.2040815182972</v>
+        <v>93.87897564322566</v>
       </c>
       <c r="N43" t="n">
-        <v>430.2493691287167</v>
+        <v>118.953310352825</v>
       </c>
       <c r="O43" t="n">
-        <v>79.30975884702369</v>
+        <v>397.5670915932262</v>
       </c>
       <c r="P43" t="n">
         <v>323.5979323663882</v>
@@ -38019,19 +38019,19 @@
         <v>107.9084797608297</v>
       </c>
       <c r="K44" t="n">
-        <v>182.4835053289585</v>
+        <v>182.4835053289586</v>
       </c>
       <c r="L44" t="n">
         <v>241.4830999614339</v>
       </c>
       <c r="M44" t="n">
-        <v>281.6521564735543</v>
+        <v>281.6521564735544</v>
       </c>
       <c r="N44" t="n">
-        <v>288.0970498876283</v>
+        <v>288.0970498876284</v>
       </c>
       <c r="O44" t="n">
-        <v>266.5865405916855</v>
+        <v>266.5865405916856</v>
       </c>
       <c r="P44" t="n">
         <v>213.4113988914702</v>
@@ -38040,7 +38040,7 @@
         <v>140.5560401330744</v>
       </c>
       <c r="R44" t="n">
-        <v>46.82024895384005</v>
+        <v>46.82024895384008</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>56.57134117968749</v>
+        <v>135.8368534361949</v>
       </c>
       <c r="K45" t="n">
-        <v>446.7623813221045</v>
+        <v>128.6618609232977</v>
       </c>
       <c r="L45" t="n">
-        <v>191.9518803437598</v>
+        <v>191.9518803437599</v>
       </c>
       <c r="M45" t="n">
         <v>231.9175093736268</v>
       </c>
       <c r="N45" t="n">
-        <v>243.950121402011</v>
+        <v>243.9501214020111</v>
       </c>
       <c r="O45" t="n">
-        <v>244.0001859360908</v>
+        <v>214.076785340472</v>
       </c>
       <c r="P45" t="n">
         <v>163.9065119335332</v>
       </c>
       <c r="Q45" t="n">
-        <v>89.14567311248754</v>
+        <v>446.7623813221047</v>
       </c>
       <c r="R45" t="n">
-        <v>100.7929153791732</v>
+        <v>11.934615907475</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>40.3774298677849</v>
+        <v>16.28530536328818</v>
       </c>
       <c r="K46" t="n">
-        <v>267.3956797008438</v>
+        <v>59.03184779608208</v>
       </c>
       <c r="L46" t="n">
-        <v>404.9252486033274</v>
+        <v>344.6244299793377</v>
       </c>
       <c r="M46" t="n">
-        <v>93.87897564322563</v>
+        <v>442.3298337384635</v>
       </c>
       <c r="N46" t="n">
-        <v>94.86118584832725</v>
+        <v>430.2493691287167</v>
       </c>
       <c r="O46" t="n">
         <v>397.5670915932262</v>
       </c>
       <c r="P46" t="n">
-        <v>323.5979323663882</v>
+        <v>60.06512077738009</v>
       </c>
       <c r="Q46" t="n">
-        <v>146.3949763593511</v>
+        <v>18.8455216059803</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
